--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32177-d490925-Reviews-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Carson.h1111249.Hotel-Information</t>
@@ -532,11 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +568,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1111 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r562423509-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>32177</t>
+  </si>
+  <si>
+    <t>490925</t>
+  </si>
+  <si>
+    <t>562423509</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Extened stay at Stay America</t>
+  </si>
+  <si>
+    <t>I stayed at the Extended Stay America in Carson, Calif. for 58 days.  The staff was very friendly and helpful. The smell of marijuana was a problem, coming through the bathroom vent. The staff was eventually able to rectify the problem. The location was ideal next to the I-110. Giving you access to all of southern Calif.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at the Extended Stay America in Carson, Calif. for 58 days.  The staff was very friendly and helpful. The smell of marijuana was a problem, coming through the bathroom vent. The staff was eventually able to rectify the problem. The location was ideal next to the I-110. Giving you access to all of southern Calif.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r545870764-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>545870764</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Staff was friendly however not in front office when checking in twice</t>
+  </si>
+  <si>
+    <t>Overall was a clean, average room. Staff was helpful friendly but wasn’t in front, had to wait until they showed up which averages 5-20 minutes. The rooms overall were of adaquate space, location was reasonable MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Overall was a clean, average room. Staff was helpful friendly but wasn’t in front, had to wait until they showed up which averages 5-20 minutes. The rooms overall were of adaquate space, location was reasonable More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r532359363-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>532359363</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>On our first night, my husband felt something crawling on his while sleeping. The next morning we saw a roach on the table. The bed did not have a mattress pad and was very hard and uncomfortable. I did not get a good night's sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>On our first night, my husband felt something crawling on his while sleeping. The next morning we saw a roach on the table. The bed did not have a mattress pad and was very hard and uncomfortable. I did not get a good night's sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r508101275-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>508101275</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Had better experience at other location.</t>
+  </si>
+  <si>
+    <t>The building is really old. Air from the old ACsmelled like dust. Carpet was old and worn out and has a cheap motel look. Bathroom floor was sticky. TV remote was sticky, covered with greese. The only good thimg was the kitchen and fridge. Coffee in the morning was not too bad either. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>The building is really old. Air from the old ACsmelled like dust. Carpet was old and worn out and has a cheap motel look. Bathroom floor was sticky. TV remote was sticky, covered with greese. The only good thimg was the kitchen and fridge. Coffee in the morning was not too bad either. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r506005290-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>506005290</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Smelled like smoke</t>
+  </si>
+  <si>
+    <t>Rooms smelled like smoking rooms. When we mentioned it there was no explanation or offer to move us to another room or discount the stay. Overall the property is acceptable but overpriced for what you get MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Rooms smelled like smoking rooms. When we mentioned it there was no explanation or offer to move us to another room or discount the stay. Overall the property is acceptable but overpriced for what you get More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r504325843-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>504325843</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Family Vacation</t>
+  </si>
+  <si>
+    <t>The location was great. The rooms were very clean and spacious. I loved the fact that I could cook because it saved my family a lot of money. The staff was very friendly and helpful. I just wish the double bed rooms were at least a queen bed. It was difficult for my husband and I to share a full.  It was definitely worth the money.  I would recommend to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>The location was great. The rooms were very clean and spacious. I loved the fact that I could cook because it saved my family a lot of money. The staff was very friendly and helpful. I just wish the double bed rooms were at least a queen bed. It was difficult for my husband and I to share a full.  It was definitely worth the money.  I would recommend to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r501901451-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>501901451</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Poor room</t>
+  </si>
+  <si>
+    <t>Walk into the room had an odor, the outlets where not working the sink would not  drain right the internet was not working there was people fighting all night so didn't get good sleep at all my wife was scared to go out at night MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Walk into the room had an odor, the outlets where not working the sink would not  drain right the internet was not working there was people fighting all night so didn't get good sleep at all my wife was scared to go out at night More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r501314638-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>501314638</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>crap crap and crap</t>
+  </si>
+  <si>
+    <t>staff was nice over priced watch out for parking fee and taxes this was the last time i ever stay at one of there hotels!!! to many issues to list, was woken up several times by workers and fire alarms it was filthy the parking lot alone was a garbage pit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>staff was nice over priced watch out for parking fee and taxes this was the last time i ever stay at one of there hotels!!! to many issues to list, was woken up several times by workers and fire alarms it was filthy the parking lot alone was a garbage pit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r499927172-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>499927172</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Overall not horrible</t>
+  </si>
+  <si>
+    <t>The service was great! And the attendants were very helpful, we really appreciated the breakfast served, but I have to admit that I was not satisfied with the cleanliness of the room and the smell of cigarette, overall it was not completely horrible and was also very least minute so we appreciate that they were able to get us in last minuteMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>The service was great! And the attendants were very helpful, we really appreciated the breakfast served, but I have to admit that I was not satisfied with the cleanliness of the room and the smell of cigarette, overall it was not completely horrible and was also very least minute so we appreciate that they were able to get us in last minuteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r492354793-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>492354793</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>beware</t>
+  </si>
+  <si>
+    <t>You have to pay for parking, there is not a pool, there is not an ice machine, no shampoo etc. in the room, no kitchen supplies in the room, not very clean.  I pulled out a chair to sit on at the desk and it was gross.  Clean up your hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>You have to pay for parking, there is not a pool, there is not an ice machine, no shampoo etc. in the room, no kitchen supplies in the room, not very clean.  I pulled out a chair to sit on at the desk and it was gross.  Clean up your hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r474259780-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>474259780</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Worst experience ever</t>
+  </si>
+  <si>
+    <t>I can't just remind any other bad experience in hotels like this one. They do room service every week, smells to cigarettes all the hotel. Breakfast included? A shame called breakfast served in the front desk over a 2ft long table with poor coffee and a few cookies. Room feels dirty and very poor cleaning services Not recommended at all MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>I can't just remind any other bad experience in hotels like this one. They do room service every week, smells to cigarettes all the hotel. Breakfast included? A shame called breakfast served in the front desk over a 2ft long table with poor coffee and a few cookies. Room feels dirty and very poor cleaning services Not recommended at all More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r437119154-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>437119154</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>AMAZING service! GREAT rooms!</t>
+  </si>
+  <si>
+    <t>I'm staying for a month total while I wait to get the keys to my new place. This place is great! Rooms are big enough for comfort and its really great that you can cook. The best part is definitely the staff! They all go above and beyond to make you feel at home and taken care of! Special shout out to Rosa for helping me understand and fix my billing issue. She's the best! Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>I'm staying for a month total while I wait to get the keys to my new place. This place is great! Rooms are big enough for comfort and its really great that you can cook. The best part is definitely the staff! They all go above and beyond to make you feel at home and taken care of! Special shout out to Rosa for helping me understand and fix my billing issue. She's the best! Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r401330387-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>401330387</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Room is good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the money the room is pretty good.staff was helpful when checking in.location is ok? Some iffy characters staying here but overall not bad! The whole free breakfast thing is a complete joke! They have free coffee and a granola bar but that's it! </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r383485904-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>383485904</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>no more!</t>
+  </si>
+  <si>
+    <t>I didn't like my room, furnishings looked like very old and were ruined.Breakfast was very poor, only packaged cereal bars and muffins with coffee dispensers.On top, they asked me 10$ extra/week for cleaning my room twice a week. Anyway the staff at reception was very kind.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r351726165-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>351726165</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Perfect if you're in town for an event at the Stub hub</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it's close to the Stub Hub center (Los Angeles Galaxy Soccer field) it's withing a walking distance 10- 15 min save yourself the parking fee and walk. If you're going to a soccer game or any event at the stub hub this hotel is perfect.
+The room was clean, smelled good, comfortable bed and it had a kitchen, fridge, microwave, sink etc 
+I know some previous reviewers complained that a coffee pot, skillets and cutting board weren't in the room. When you check in at the hotel you get your key and little flyer/ brochure that explains a few things first the housekeeping/towels and covers aren't changed daily because of the major California drought.
+Second  pots, cutting boards,cups,skillets  and a coffee maker are all available at the main desk all you have to do is ask.
+The hotel is in a good location. There's a Starbucks next door , a taco place, a BBQ restaurant, a 24/7 Jack in the box , a 24/7 gas station and a family clothing store. You don't have to drive anywhere to buy food. I walked to the stadium maybe 1-2 miles? the area seemed safe I didn't see any homeless people or sketchy people at all. 
+The only cons I can think of are that
+1. No computer or printer if you need to print out your airline tickets then you're out of luck.
+2.Breakfast is very simple...I booked this hotel because it's close to the Stub Hub center (Los Angeles Galaxy Soccer field) it's withing a walking distance 10- 15 min save yourself the parking fee and walk. If you're going to a soccer game or any event at the stub hub this hotel is perfect.The room was clean, smelled good, comfortable bed and it had a kitchen, fridge, microwave, sink etc I know some previous reviewers complained that a coffee pot, skillets and cutting board weren't in the room. When you check in at the hotel you get your key and little flyer/ brochure that explains a few things first the housekeeping/towels and covers aren't changed daily because of the major California drought.Second  pots, cutting boards,cups,skillets  and a coffee maker are all available at the main desk all you have to do is ask.The hotel is in a good location. There's a Starbucks next door , a taco place, a BBQ restaurant, a 24/7 Jack in the box , a 24/7 gas station and a family clothing store. You don't have to drive anywhere to buy food. I walked to the stadium maybe 1-2 miles? the area seemed safe I didn't see any homeless people or sketchy people at all. The only cons I can think of are that1. No computer or printer if you need to print out your airline tickets then you're out of luck.2.Breakfast is very simple just coffee, muffins, granola and oatmeal.other than that I enjoyed my stay perfect for families you can save some money by cooking a few meals in the room instead of eating out.The hotel is about 30-40 min from downtown depending on traffic. If you're in L.A as a tourist you're going to spend some time driving to the main attractions.If you're in L.A to watch a  soccer game like me (L.A Galaxy VS Santos Laguna) then this hotel is your best bet.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it's close to the Stub Hub center (Los Angeles Galaxy Soccer field) it's withing a walking distance 10- 15 min save yourself the parking fee and walk. If you're going to a soccer game or any event at the stub hub this hotel is perfect.
+The room was clean, smelled good, comfortable bed and it had a kitchen, fridge, microwave, sink etc 
+I know some previous reviewers complained that a coffee pot, skillets and cutting board weren't in the room. When you check in at the hotel you get your key and little flyer/ brochure that explains a few things first the housekeeping/towels and covers aren't changed daily because of the major California drought.
+Second  pots, cutting boards,cups,skillets  and a coffee maker are all available at the main desk all you have to do is ask.
+The hotel is in a good location. There's a Starbucks next door , a taco place, a BBQ restaurant, a 24/7 Jack in the box , a 24/7 gas station and a family clothing store. You don't have to drive anywhere to buy food. I walked to the stadium maybe 1-2 miles? the area seemed safe I didn't see any homeless people or sketchy people at all. 
+The only cons I can think of are that
+1. No computer or printer if you need to print out your airline tickets then you're out of luck.
+2.Breakfast is very simple...I booked this hotel because it's close to the Stub Hub center (Los Angeles Galaxy Soccer field) it's withing a walking distance 10- 15 min save yourself the parking fee and walk. If you're going to a soccer game or any event at the stub hub this hotel is perfect.The room was clean, smelled good, comfortable bed and it had a kitchen, fridge, microwave, sink etc I know some previous reviewers complained that a coffee pot, skillets and cutting board weren't in the room. When you check in at the hotel you get your key and little flyer/ brochure that explains a few things first the housekeeping/towels and covers aren't changed daily because of the major California drought.Second  pots, cutting boards,cups,skillets  and a coffee maker are all available at the main desk all you have to do is ask.The hotel is in a good location. There's a Starbucks next door , a taco place, a BBQ restaurant, a 24/7 Jack in the box , a 24/7 gas station and a family clothing store. You don't have to drive anywhere to buy food. I walked to the stadium maybe 1-2 miles? the area seemed safe I didn't see any homeless people or sketchy people at all. The only cons I can think of are that1. No computer or printer if you need to print out your airline tickets then you're out of luck.2.Breakfast is very simple just coffee, muffins, granola and oatmeal.other than that I enjoyed my stay perfect for families you can save some money by cooking a few meals in the room instead of eating out.The hotel is about 30-40 min from downtown depending on traffic. If you're in L.A as a tourist you're going to spend some time driving to the main attractions.If you're in L.A to watch a  soccer game like me (L.A Galaxy VS Santos Laguna) then this hotel is your best bet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r336929141-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>336929141</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Fine for a quick stay.</t>
+  </si>
+  <si>
+    <t>We only stayed one night &amp; unfortunately there was only a smoking room available, and it was very smokey. Other than that, it was fine. The beds were comfy, the bathroom clean, the fridge large, the kitchenette small but functional.Despite its proximity to two busy roads we didn't notice any traffic noise at all. So, for us, its proximity to LAX was much more important than its location between busy roads &amp; you'd be hard pushed to get another LA hotel that was safe &amp; of reasonable standard, for the price.We checked out very early, but we're still offered the breakfast before leaving.For us,nthe staff friendliness makes a big difference in what is an older hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>We only stayed one night &amp; unfortunately there was only a smoking room available, and it was very smokey. Other than that, it was fine. The beds were comfy, the bathroom clean, the fridge large, the kitchenette small but functional.Despite its proximity to two busy roads we didn't notice any traffic noise at all. So, for us, its proximity to LAX was much more important than its location between busy roads &amp; you'd be hard pushed to get another LA hotel that was safe &amp; of reasonable standard, for the price.We checked out very early, but we're still offered the breakfast before leaving.For us,nthe staff friendliness makes a big difference in what is an older hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r332278535-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>332278535</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Almost there!</t>
+  </si>
+  <si>
+    <t>The Extended Stay in Carson is so close to being what I needed in a work hotel. The biggest issue I had was that there is no business center. I often need to use a computer to print things out, and although the front desk said they could do it, I definitely would have preferred to do it myself and get any additional work done in a business center type space. The rooms are an adequate size, and seemed very clean. The hallways definitely smell like smoke, but the rooms don't smell like smoke at all! It is right next to the freeway, but you can't really hear the traffic too much. BIG PLUS: there's a Starbucks right next door! Overall, definitely adequate, but maybe not quite worth the current nightly rate. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>The Extended Stay in Carson is so close to being what I needed in a work hotel. The biggest issue I had was that there is no business center. I often need to use a computer to print things out, and although the front desk said they could do it, I definitely would have preferred to do it myself and get any additional work done in a business center type space. The rooms are an adequate size, and seemed very clean. The hallways definitely smell like smoke, but the rooms don't smell like smoke at all! It is right next to the freeway, but you can't really hear the traffic too much. BIG PLUS: there's a Starbucks right next door! Overall, definitely adequate, but maybe not quite worth the current nightly rate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r311124838-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>311124838</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Party place?</t>
+  </si>
+  <si>
+    <t>Had just driven from Chicago in 2.5 days - this was the closest, "safest" pet-freindly hotel for us and our older golden retreiver.  Not what I expected for an Extended stay hotel - no dishes, cookware or even an ice bucket.  Pet fee was high @ $25, but it's LA folks.  Room seemed clean. no smells, and no fleas as noted in another review.  But it was teeming with young guys, bringing in cases of beer and congregating by the doors which didn't make us feel too safe.  Complimentary breakfast scimpy - coffee, juice, small rolls.  Bathroom cramped, doors to BR, outside and kitchen counter knock together.  Not a horrible stay, but I've had many that were nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Had just driven from Chicago in 2.5 days - this was the closest, "safest" pet-freindly hotel for us and our older golden retreiver.  Not what I expected for an Extended stay hotel - no dishes, cookware or even an ice bucket.  Pet fee was high @ $25, but it's LA folks.  Room seemed clean. no smells, and no fleas as noted in another review.  But it was teeming with young guys, bringing in cases of beer and congregating by the doors which didn't make us feel too safe.  Complimentary breakfast scimpy - coffee, juice, small rolls.  Bathroom cramped, doors to BR, outside and kitchen counter knock together.  Not a horrible stay, but I've had many that were nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r285824009-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>285824009</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Fleas</t>
+  </si>
+  <si>
+    <t>Friendly, efficient front desk staff. Easy early check in. Spacious room. Recliner was definitely a plus. Numerous electrical outlets for electronic devices. Freeway side of building was not a noise distraction. Stated all my positives before mentioning the one NEGATIVES: Within minutes in my room was bitten by fleas. Staff changed comforter, problem persisted. Staff offered another room, no change. Staff insisted I was not in pet room (well, where did the fleas come from?) MGMT: Perhaps pet friendly rooms should be isolated to one floor/wing. Finally went to store and purchased anti inching cream. Ultimate solution: keep air conditioning on high and the fleas are kept at bay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Friendly, efficient front desk staff. Easy early check in. Spacious room. Recliner was definitely a plus. Numerous electrical outlets for electronic devices. Freeway side of building was not a noise distraction. Stated all my positives before mentioning the one NEGATIVES: Within minutes in my room was bitten by fleas. Staff changed comforter, problem persisted. Staff offered another room, no change. Staff insisted I was not in pet room (well, where did the fleas come from?) MGMT: Perhaps pet friendly rooms should be isolated to one floor/wing. Finally went to store and purchased anti inching cream. Ultimate solution: keep air conditioning on high and the fleas are kept at bay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r259506310-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>259506310</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>I couldn't wait to leave</t>
+  </si>
+  <si>
+    <t>I've been a member of Trip Advisor since 2004, and I've written over 150 reviews during that time.  I would estimate that I have given a "1 circle" rating to less than 5% of the hotels I've stayed in.  There were too many negative things that happened at this hotel to give it any more than that. 
+When I checked in at about 330pm, the clerk told me that only one room was left and it's a smoking room. She said that the hotel is completely sold out, and there's only one room I can have because everyone else had already reserved a non-smoking room.  When I came downstairs 20 minutes later, she was talking with someone who apparently walked in with no reservation, and the girl told her that she only had non-smoking rooms available, and that she could rent one of those.  So somebody with no reservation can have a non-smoking room, but I can't?  By the way, I checked their web site that night, and they were showing rooms available that same night, and the next (not a complete sold-out situation as she had described it to me).
+The free WiFi worked OK.
+In my opinion, this is a one-star hotel, not a two-star as it had been described to me. It's just like a Motel 6, but there's a small kitchenette. The furniture is old; there are ripples in the carpet; the walls are thin.  
+A...I've been a member of Trip Advisor since 2004, and I've written over 150 reviews during that time.  I would estimate that I have given a "1 circle" rating to less than 5% of the hotels I've stayed in.  There were too many negative things that happened at this hotel to give it any more than that. When I checked in at about 330pm, the clerk told me that only one room was left and it's a smoking room. She said that the hotel is completely sold out, and there's only one room I can have because everyone else had already reserved a non-smoking room.  When I came downstairs 20 minutes later, she was talking with someone who apparently walked in with no reservation, and the girl told her that she only had non-smoking rooms available, and that she could rent one of those.  So somebody with no reservation can have a non-smoking room, but I can't?  By the way, I checked their web site that night, and they were showing rooms available that same night, and the next (not a complete sold-out situation as she had described it to me).The free WiFi worked OK.In my opinion, this is a one-star hotel, not a two-star as it had been described to me. It's just like a Motel 6, but there's a small kitchenette. The furniture is old; there are ripples in the carpet; the walls are thin.  A major flaw of this hotel is the location itself.  It was constructed on a narrow strip of land between the 91 Freeway and busy Albertoni Street.  No matter which side of the hotel you are on, you're only about 100 feet away from either the major street, or the busy freeway (just look up the address on Google Earth so you can see this for yourself).  This is something that's beyond the control of the management, but there were many other flaws I had to contend with while staying here:1. The bathtub drains so slowly that there was about 4" of standing water in the tub when I finished my shower. 2. There were dried food stains on the desk chair, which I had to clean off with a wet washcloth (shouldn't the staff have done this?). 3. The microwave oven does not have the turntable in it.  4. The bathroom fan is noisy. 5. The telephone has no placard with the hotel address and phone number.6. There was a hole in the window screen. 7. The electric plug in the bathroom didn't work, so I couldn't use my electric shaver in the bathroom.  GFCI outlets go bad sometimes, and this one needs to be replaced (I pressed the reset button, to no avail).If there had been only one or two problems with the room, I would have been more forgiving.  This many issues makes it look like necessary maintenance is being neglected.   I was on the phone with the online travel agency I used to book this hotel, and they called the front desk twice during our half hour call.  She said the hotel employee told them I couldn't change rooms, and didn't offer any other solution.  The people I dealt with at the front desk were all polite, but not effective. I was there for only 3 nights. I feel sorry for the people whose companies put them in this place for extended stays.  Each night I dreaded returning, and I couldn't wait to leave.  As a side note, the day I departed this hotel, I stayed at a different Extended Stay America, and it was a wonderful experience. I wish I had stayed there the entire time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2015</t>
+  </si>
+  <si>
+    <t>I've been a member of Trip Advisor since 2004, and I've written over 150 reviews during that time.  I would estimate that I have given a "1 circle" rating to less than 5% of the hotels I've stayed in.  There were too many negative things that happened at this hotel to give it any more than that. 
+When I checked in at about 330pm, the clerk told me that only one room was left and it's a smoking room. She said that the hotel is completely sold out, and there's only one room I can have because everyone else had already reserved a non-smoking room.  When I came downstairs 20 minutes later, she was talking with someone who apparently walked in with no reservation, and the girl told her that she only had non-smoking rooms available, and that she could rent one of those.  So somebody with no reservation can have a non-smoking room, but I can't?  By the way, I checked their web site that night, and they were showing rooms available that same night, and the next (not a complete sold-out situation as she had described it to me).
+The free WiFi worked OK.
+In my opinion, this is a one-star hotel, not a two-star as it had been described to me. It's just like a Motel 6, but there's a small kitchenette. The furniture is old; there are ripples in the carpet; the walls are thin.  
+A...I've been a member of Trip Advisor since 2004, and I've written over 150 reviews during that time.  I would estimate that I have given a "1 circle" rating to less than 5% of the hotels I've stayed in.  There were too many negative things that happened at this hotel to give it any more than that. When I checked in at about 330pm, the clerk told me that only one room was left and it's a smoking room. She said that the hotel is completely sold out, and there's only one room I can have because everyone else had already reserved a non-smoking room.  When I came downstairs 20 minutes later, she was talking with someone who apparently walked in with no reservation, and the girl told her that she only had non-smoking rooms available, and that she could rent one of those.  So somebody with no reservation can have a non-smoking room, but I can't?  By the way, I checked their web site that night, and they were showing rooms available that same night, and the next (not a complete sold-out situation as she had described it to me).The free WiFi worked OK.In my opinion, this is a one-star hotel, not a two-star as it had been described to me. It's just like a Motel 6, but there's a small kitchenette. The furniture is old; there are ripples in the carpet; the walls are thin.  A major flaw of this hotel is the location itself.  It was constructed on a narrow strip of land between the 91 Freeway and busy Albertoni Street.  No matter which side of the hotel you are on, you're only about 100 feet away from either the major street, or the busy freeway (just look up the address on Google Earth so you can see this for yourself).  This is something that's beyond the control of the management, but there were many other flaws I had to contend with while staying here:1. The bathtub drains so slowly that there was about 4" of standing water in the tub when I finished my shower. 2. There were dried food stains on the desk chair, which I had to clean off with a wet washcloth (shouldn't the staff have done this?). 3. The microwave oven does not have the turntable in it.  4. The bathroom fan is noisy. 5. The telephone has no placard with the hotel address and phone number.6. There was a hole in the window screen. 7. The electric plug in the bathroom didn't work, so I couldn't use my electric shaver in the bathroom.  GFCI outlets go bad sometimes, and this one needs to be replaced (I pressed the reset button, to no avail).If there had been only one or two problems with the room, I would have been more forgiving.  This many issues makes it look like necessary maintenance is being neglected.   I was on the phone with the online travel agency I used to book this hotel, and they called the front desk twice during our half hour call.  She said the hotel employee told them I couldn't change rooms, and didn't offer any other solution.  The people I dealt with at the front desk were all polite, but not effective. I was there for only 3 nights. I feel sorry for the people whose companies put them in this place for extended stays.  Each night I dreaded returning, and I couldn't wait to leave.  As a side note, the day I departed this hotel, I stayed at a different Extended Stay America, and it was a wonderful experience. I wish I had stayed there the entire time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r256817548-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>256817548</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>The quality of my stay.</t>
+  </si>
+  <si>
+    <t>The staff was very warm, welcoming and always willing to assist. The room was a nice size and very clean. We had no problems with this hotel nor there service. The front desk was very helpful And professional! I would stay there again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>The staff was very warm, welcoming and always willing to assist. The room was a nice size and very clean. We had no problems with this hotel nor there service. The front desk was very helpful And professional! I would stay there again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r235126999-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>235126999</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>This is one Extended America My wife and I are crazy about. We stayed here the entire month of September 2014. The room was spacious and the kitchenette very clean and cozy. The hotel amenities were excellent. Continental breakfast included, unlimited cereal, coffee, apples, oranges and snack bars. It has free wi-fi but could be upgraded for more convenient use. Overall I highly recommend this for a vacation with homey ambiance. Eating places surrounds the hotel within walking distance and is close to a major freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>This is one Extended America My wife and I are crazy about. We stayed here the entire month of September 2014. The room was spacious and the kitchenette very clean and cozy. The hotel amenities were excellent. Continental breakfast included, unlimited cereal, coffee, apples, oranges and snack bars. It has free wi-fi but could be upgraded for more convenient use. Overall I highly recommend this for a vacation with homey ambiance. Eating places surrounds the hotel within walking distance and is close to a major freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r233708212-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>233708212</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Horrible Policies &amp; Customer Service</t>
+  </si>
+  <si>
+    <t>Will not stay at this hotel again. Absolutely no customer service at all.
+If you have a coupon or discount for your room it will NOT be applied until you check out. You are charged the full amount up front and refunded the discount upon checkout. If you checkout before the front desk opens (does not open until 7am or later) then you don't get the discount or you have to call the hotel and ask for the refund to be put back on your card. What a stupid, stupid policy.
+Don't bother booking a "specific" room online, they won't give it to you when you show up anyways. I booked a king bed suite (for an extra charge mind you) and when I showed up they said they didn't have any left and I would have to settle for a room with 2 double beds. I'm 6'3" and traveling with my girlfriend and they expect me and her to fit into a double bed or sleep in separate beds? I think not. The manager yelled from around the counter that I was getting a deal because I was getting 2 beds. How was this a deal? I paid more for the king than two doubles so I was getting ripped off.
+They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give...Will not stay at this hotel again. Absolutely no customer service at all.If you have a coupon or discount for your room it will NOT be applied until you check out. You are charged the full amount up front and refunded the discount upon checkout. If you checkout before the front desk opens (does not open until 7am or later) then you don't get the discount or you have to call the hotel and ask for the refund to be put back on your card. What a stupid, stupid policy.Don't bother booking a "specific" room online, they won't give it to you when you show up anyways. I booked a king bed suite (for an extra charge mind you) and when I showed up they said they didn't have any left and I would have to settle for a room with 2 double beds. I'm 6'3" and traveling with my girlfriend and they expect me and her to fit into a double bed or sleep in separate beds? I think not. The manager yelled from around the counter that I was getting a deal because I was getting 2 beds. How was this a deal? I paid more for the king than two doubles so I was getting ripped off.They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give this hotel my money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Will not stay at this hotel again. Absolutely no customer service at all.
+If you have a coupon or discount for your room it will NOT be applied until you check out. You are charged the full amount up front and refunded the discount upon checkout. If you checkout before the front desk opens (does not open until 7am or later) then you don't get the discount or you have to call the hotel and ask for the refund to be put back on your card. What a stupid, stupid policy.
+Don't bother booking a "specific" room online, they won't give it to you when you show up anyways. I booked a king bed suite (for an extra charge mind you) and when I showed up they said they didn't have any left and I would have to settle for a room with 2 double beds. I'm 6'3" and traveling with my girlfriend and they expect me and her to fit into a double bed or sleep in separate beds? I think not. The manager yelled from around the counter that I was getting a deal because I was getting 2 beds. How was this a deal? I paid more for the king than two doubles so I was getting ripped off.
+They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give...Will not stay at this hotel again. Absolutely no customer service at all.If you have a coupon or discount for your room it will NOT be applied until you check out. You are charged the full amount up front and refunded the discount upon checkout. If you checkout before the front desk opens (does not open until 7am or later) then you don't get the discount or you have to call the hotel and ask for the refund to be put back on your card. What a stupid, stupid policy.Don't bother booking a "specific" room online, they won't give it to you when you show up anyways. I booked a king bed suite (for an extra charge mind you) and when I showed up they said they didn't have any left and I would have to settle for a room with 2 double beds. I'm 6'3" and traveling with my girlfriend and they expect me and her to fit into a double bed or sleep in separate beds? I think not. The manager yelled from around the counter that I was getting a deal because I was getting 2 beds. How was this a deal? I paid more for the king than two doubles so I was getting ripped off.They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give this hotel my money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r222936950-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>222936950</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Wet Floors/Carpeting</t>
+  </si>
+  <si>
+    <t>Recently stayed here on business.  First time staying at an Extended Stay America.  Don't think I would ever stay in any of this brand again.  First - the positive - the room was clean, however, they must have just shampooed the carpet in my room as it was wet - wet enough to go through my socks.  I ended up putting towels (there were no many) on the floor so that I could walk without getting my feet wet to the bathroom.  Extremely small rooms for an extended stay type hotel.  If I had to stay more than one night I would be claustrophobic.  Also, you have to ask for any utensils, etc at the front desk - guess they have a high theft rate, which doesn't make me feel very comfortable.  No hair dryer - thinking this might be the same with the other conveniences they have removed from their kitchen - or was it stole?  Mattress very hard and sheets low quality - a little scratchy.  Also, when I went out to see what their grab and go breakfast was in the morning at about 7:30 am - there was nothing left except some apples I believe.  I think one could do much better than this at a different extended stay brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Recently stayed here on business.  First time staying at an Extended Stay America.  Don't think I would ever stay in any of this brand again.  First - the positive - the room was clean, however, they must have just shampooed the carpet in my room as it was wet - wet enough to go through my socks.  I ended up putting towels (there were no many) on the floor so that I could walk without getting my feet wet to the bathroom.  Extremely small rooms for an extended stay type hotel.  If I had to stay more than one night I would be claustrophobic.  Also, you have to ask for any utensils, etc at the front desk - guess they have a high theft rate, which doesn't make me feel very comfortable.  No hair dryer - thinking this might be the same with the other conveniences they have removed from their kitchen - or was it stole?  Mattress very hard and sheets low quality - a little scratchy.  Also, when I went out to see what their grab and go breakfast was in the morning at about 7:30 am - there was nothing left except some apples I believe.  I think one could do much better than this at a different extended stay brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r211211071-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>211211071</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Basic but decent</t>
+  </si>
+  <si>
+    <t>If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and...If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and coffee.  The area around the hotel seemed safe enough, but I just stayed one night, so don't know for sure.  I got a great deal on Hotwire so that made this hotel worth it.  I wouldn't pay too much for it.  But like I said, if you just need a place to stay, it is a basic but decent hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and...If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and coffee.  The area around the hotel seemed safe enough, but I just stayed one night, so don't know for sure.  I got a great deal on Hotwire so that made this hotel worth it.  I wouldn't pay too much for it.  But like I said, if you just need a place to stay, it is a basic but decent hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r207267259-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>207267259</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Clean, Affordable, Great Service</t>
+  </si>
+  <si>
+    <t>I wasn't spending much time indoors so I just needed a place to crash and this was very affordable for my 6 night stay. The room was really clean, the staff was really friendly and helpful. Somehow the toilet managed to block itself and the inhouse handy man came and fixed it real quick and even gave me tips on how to use a plunger after failing to fix it myself lol. Grab and go breakfast was convenient and also the location was really good with quite a few restaurants, 7 Elevens and fast food joints a stones throw away. Would definitely stay here again if I'm ever back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>I wasn't spending much time indoors so I just needed a place to crash and this was very affordable for my 6 night stay. The room was really clean, the staff was really friendly and helpful. Somehow the toilet managed to block itself and the inhouse handy man came and fixed it real quick and even gave me tips on how to use a plunger after failing to fix it myself lol. Grab and go breakfast was convenient and also the location was really good with quite a few restaurants, 7 Elevens and fast food joints a stones throw away. Would definitely stay here again if I'm ever back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r204145443-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>204145443</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Great place to Crash</t>
+  </si>
+  <si>
+    <t>I thought it was a great place to crash and stay for one night on a recent business trip. The neighborhood is commercial and I felt safe arriving for a late check-in. Staff very helpful, too. Loved the grab and go breakfast, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2014</t>
+  </si>
+  <si>
+    <t>I thought it was a great place to crash and stay for one night on a recent business trip. The neighborhood is commercial and I felt safe arriving for a late check-in. Staff very helpful, too. Loved the grab and go breakfast, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r194596741-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>194596741</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Its Okay</t>
+  </si>
+  <si>
+    <t>The location is not ideal because it is located right next to the freeway, but at least the room that I stayed in was clean. They have a security guard that patrols the grounds in the evening when the front office staff takes off, which is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>The location is not ideal because it is located right next to the freeway, but at least the room that I stayed in was clean. They have a security guard that patrols the grounds in the evening when the front office staff takes off, which is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r193268252-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>193268252</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Just what I needed!</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay it was just what I needed to get away from home. I felt like I had a mini vacation. It had been a long and stressful week, I was looking forward to getting away for the Super Bowl along with the chance to see friends. Once the party was over I wanted a place to go where no one could reach me for couple days. While driving on the 91 fwy I saw hotels and decided this was the perfect location for me. I'm happy with the choice I made.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded February 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2014</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay it was just what I needed to get away from home. I felt like I had a mini vacation. It had been a long and stressful week, I was looking forward to getting away for the Super Bowl along with the chance to see friends. Once the party was over I wanted a place to go where no one could reach me for couple days. While driving on the 91 fwy I saw hotels and decided this was the perfect location for me. I'm happy with the choice I made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r191809243-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>191809243</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>The Room was OK, Not So Much The Service</t>
+  </si>
+  <si>
+    <t>I've stayed here before and have always had a pleasant stay so I booked here again.  Two gentlemen walked in right in front of me and there was already another gentleman being checked in.  One lady was helping the one gentleman and another young lady starting helping the two guys.  She realized they were trying to communicate with her in broken English so she started speaking Spanish.  This was a hit with them and they went back and forth speaking, laughing, giggling.  I was getting frustrated as obviously part of the conversation was social and I was just standing there waiting to be checked in.  That didn't seem to bother the clerk as she just went on and on.  Finally the other clerk got me checked in.  She checked both the other gentleman and myself in less time than the other clerk did.  She had to have spent at least 10 minutes with them and as I said it didn't bother her at all that another customer was waiting while she was just bs'ing with these two guys.  I'll have to think twice before I come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded January 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed here before and have always had a pleasant stay so I booked here again.  Two gentlemen walked in right in front of me and there was already another gentleman being checked in.  One lady was helping the one gentleman and another young lady starting helping the two guys.  She realized they were trying to communicate with her in broken English so she started speaking Spanish.  This was a hit with them and they went back and forth speaking, laughing, giggling.  I was getting frustrated as obviously part of the conversation was social and I was just standing there waiting to be checked in.  That didn't seem to bother the clerk as she just went on and on.  Finally the other clerk got me checked in.  She checked both the other gentleman and myself in less time than the other clerk did.  She had to have spent at least 10 minutes with them and as I said it didn't bother her at all that another customer was waiting while she was just bs'ing with these two guys.  I'll have to think twice before I come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r182501650-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>182501650</t>
+  </si>
+  <si>
+    <t>10/26/2013</t>
+  </si>
+  <si>
+    <t>Not the Mariott, but Good</t>
+  </si>
+  <si>
+    <t>clean inexpensive right off the highway close to STUB-HUB,  BEST price close to LAX,  no  fancy amenities, but good restaurants near by.  cant beat the rate for a spacious room with a kitchen . I overheard a young lady complain at the front desk because there is no complimentary daily room service, but what can you expect for the price? It’s spacious, clean, and served the purpose.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r182340981-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>182340981</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>It was 10:30 at night and I had my child with me, the first room we went to smelled like smoke so I requested a different room. The next room we went to it had roaches crawling around like they own the joint! I could not believe this, I went through HotelsOne.com and explain to them the experience with the hotel and they did not want to refund the money back. The hotel canceled the reservation, but HotelsOne.com would not. It is bad enough to pay 126.09 for a night but not give a refund because of the condition's there they should have giving at lease half of my money back. I will let everyone know that HotelsOne.com is not the place to recommend for finding a hotel with. Well we did not stay there, I just could see staying somewhere with my child, to stay with roaches! I would not recommend this place to my enemies. So you tell me how would you rate something like this?MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>It was 10:30 at night and I had my child with me, the first room we went to smelled like smoke so I requested a different room. The next room we went to it had roaches crawling around like they own the joint! I could not believe this, I went through HotelsOne.com and explain to them the experience with the hotel and they did not want to refund the money back. The hotel canceled the reservation, but HotelsOne.com would not. It is bad enough to pay 126.09 for a night but not give a refund because of the condition's there they should have giving at lease half of my money back. I will let everyone know that HotelsOne.com is not the place to recommend for finding a hotel with. Well we did not stay there, I just could see staying somewhere with my child, to stay with roaches! I would not recommend this place to my enemies. So you tell me how would you rate something like this?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r181761249-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>181761249</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>A good place close to the airport</t>
+  </si>
+  <si>
+    <t>Very nice hotel , a good customer service, good location if you would like to be close the LAX.The reception service was really kind and helpful, very comfortable room. The breakfast was not he best but It was good, I got a good deal a good price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r166634525-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>166634525</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Full kitchen and recently renovated room.</t>
+  </si>
+  <si>
+    <t>Easy check in from a very nice associate and quickly into a clean, comfortable room.  Full kitchen was nice and made for easy eats.  Not a great area but not bad.  Easy freeway access.  Plenty of restaurants nearby.  Good location to work downtown, a short 20 minute drive.  The beach is about 20 minutes away.  Convenient to all points in the South Bay.  Ports of Call is fun.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Easy check in from a very nice associate and quickly into a clean, comfortable room.  Full kitchen was nice and made for easy eats.  Not a great area but not bad.  Easy freeway access.  Plenty of restaurants nearby.  Good location to work downtown, a short 20 minute drive.  The beach is about 20 minutes away.  Convenient to all points in the South Bay.  Ports of Call is fun.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r164521180-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>164521180</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>ESA front office closes @ 11pm, you can't call to check for directions</t>
+  </si>
+  <si>
+    <t>this supposed hotel is just off the 91 Riverside freeway; not far away from another Extended Stay Hotel along Vermont Ave in Gardena
+the Front Office closes at 11 pm &amp; as I discovered to my horror at another Extended Stay hotel in Mishawaka, Indiana, nobody is around to answer the phone after 11 pm ( to give directions)
+The room at ESA/Carson is DEFINITELY bigger than the ESA in Gardena
+I get the feeling that ESA has a sweetheart deal with the local municipality; where the municipality can make use of the rooms to house some on WELFARE HOUSING
+that is why there is a kitchenette &amp; in house laundry
+I met a German couple who stayed at ESA in Phoenix, AZ &amp; they said the same thing
+free cakes &amp; cereals in morning
+I would stay @ ESA chain of supposed hotels only as a last resort; given the clientele that I am 'rubbing shoulders' with
+ESA is welfare housing masquerading as a 7am - 11 pm 'hotel'
+I would not pay more than $40 per nite for it; as it is those stayers are already doing the local municipalities such as Gardena &amp; Carson, CA... Mishawaka, Indiana a great favour
+don't be fooled by ESA's 'stringent' credit criteria such as not accepting reservations &amp;/or admitting hotel stayers without a Credit Card 
+for your info, ESA DOESN'T ACCEPT cash payment
+good thing I stayed for only 1 nite...this supposed hotel is just off the 91 Riverside freeway; not far away from another Extended Stay Hotel along Vermont Ave in Gardenathe Front Office closes at 11 pm &amp; as I discovered to my horror at another Extended Stay hotel in Mishawaka, Indiana, nobody is around to answer the phone after 11 pm ( to give directions)The room at ESA/Carson is DEFINITELY bigger than the ESA in GardenaI get the feeling that ESA has a sweetheart deal with the local municipality; where the municipality can make use of the rooms to house some on WELFARE HOUSINGthat is why there is a kitchenette &amp; in house laundryI met a German couple who stayed at ESA in Phoenix, AZ &amp; they said the same thingfree cakes &amp; cereals in morningI would stay @ ESA chain of supposed hotels only as a last resort; given the clientele that I am 'rubbing shoulders' withESA is welfare housing masquerading as a 7am - 11 pm 'hotel'I would not pay more than $40 per nite for it; as it is those stayers are already doing the local municipalities such as Gardena &amp; Carson, CA... Mishawaka, Indiana a great favourdon't be fooled by ESA's 'stringent' credit criteria such as not accepting reservations &amp;/or admitting hotel stayers without a Credit Card for your info, ESA DOESN'T ACCEPT cash paymentgood thing I stayed for only 1 niteThere is an Arco gas station along Albertoni Street, Jack in the Box, Panda Express etc2 in strip mall adjacent to ESA/Carsonthe worst value for money is ESA in Gardena, CA along Vermont Ave. the rooms @ ESA/Gardena is about HALF the size of the ESA I stayed in this Carson, CA location &amp; in Mishawaka, INMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded June 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2013</t>
+  </si>
+  <si>
+    <t>this supposed hotel is just off the 91 Riverside freeway; not far away from another Extended Stay Hotel along Vermont Ave in Gardena
+the Front Office closes at 11 pm &amp; as I discovered to my horror at another Extended Stay hotel in Mishawaka, Indiana, nobody is around to answer the phone after 11 pm ( to give directions)
+The room at ESA/Carson is DEFINITELY bigger than the ESA in Gardena
+I get the feeling that ESA has a sweetheart deal with the local municipality; where the municipality can make use of the rooms to house some on WELFARE HOUSING
+that is why there is a kitchenette &amp; in house laundry
+I met a German couple who stayed at ESA in Phoenix, AZ &amp; they said the same thing
+free cakes &amp; cereals in morning
+I would stay @ ESA chain of supposed hotels only as a last resort; given the clientele that I am 'rubbing shoulders' with
+ESA is welfare housing masquerading as a 7am - 11 pm 'hotel'
+I would not pay more than $40 per nite for it; as it is those stayers are already doing the local municipalities such as Gardena &amp; Carson, CA... Mishawaka, Indiana a great favour
+don't be fooled by ESA's 'stringent' credit criteria such as not accepting reservations &amp;/or admitting hotel stayers without a Credit Card 
+for your info, ESA DOESN'T ACCEPT cash payment
+good thing I stayed for only 1 nite...this supposed hotel is just off the 91 Riverside freeway; not far away from another Extended Stay Hotel along Vermont Ave in Gardenathe Front Office closes at 11 pm &amp; as I discovered to my horror at another Extended Stay hotel in Mishawaka, Indiana, nobody is around to answer the phone after 11 pm ( to give directions)The room at ESA/Carson is DEFINITELY bigger than the ESA in GardenaI get the feeling that ESA has a sweetheart deal with the local municipality; where the municipality can make use of the rooms to house some on WELFARE HOUSINGthat is why there is a kitchenette &amp; in house laundryI met a German couple who stayed at ESA in Phoenix, AZ &amp; they said the same thingfree cakes &amp; cereals in morningI would stay @ ESA chain of supposed hotels only as a last resort; given the clientele that I am 'rubbing shoulders' withESA is welfare housing masquerading as a 7am - 11 pm 'hotel'I would not pay more than $40 per nite for it; as it is those stayers are already doing the local municipalities such as Gardena &amp; Carson, CA... Mishawaka, Indiana a great favourdon't be fooled by ESA's 'stringent' credit criteria such as not accepting reservations &amp;/or admitting hotel stayers without a Credit Card for your info, ESA DOESN'T ACCEPT cash paymentgood thing I stayed for only 1 niteThere is an Arco gas station along Albertoni Street, Jack in the Box, Panda Express etc2 in strip mall adjacent to ESA/Carsonthe worst value for money is ESA in Gardena, CA along Vermont Ave. the rooms @ ESA/Gardena is about HALF the size of the ESA I stayed in this Carson, CA location &amp; in Mishawaka, INMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r159447249-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>159447249</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Horrible Odor</t>
+  </si>
+  <si>
+    <t>This hotel has the worst odor ever. When you first walk in the odor hits you right a way. I had to return twice to the front desk to have the attendant rekey the card. At this point I was really annoyed. The housekeeper totally forgot to place a thermo blanket on the bed. In addition there's no security.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r149961404-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>149961404</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>Helpful Staff</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for about 5 months at Extended Stay at Carson and the staff there specially Daisy and Angelo were extremely helpful, nice and thoughtful. I recommended this hotel to my friends becuase of Daisy and Angelo. They would take care of you. They are also very professional and polite! Hope you get a chance to meet them.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for about 5 months at Extended Stay at Carson and the staff there specially Daisy and Angelo were extremely helpful, nice and thoughtful. I recommended this hotel to my friends becuase of Daisy and Angelo. They would take care of you. They are also very professional and polite! Hope you get a chance to meet them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r146347775-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>146347775</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>EXTENDED STAY AMERICA</t>
+  </si>
+  <si>
+    <t>The hotel staff were kind, helpful and knowledge.  The room and bathroom were spacious and has a mini kitchen. The interior is good. Our only problem with the room is that when we check the beddings, there's some hairs and it is dirty so we didn't use it. There's a nearby restaurants. But if your looking for a shopping malls and attractions nearby you need to take a bus or a cab if you are commuting. The hotel do have free Wi-Fi, laundry facility and Continental Breakfast. The rate are affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded November 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2012</t>
+  </si>
+  <si>
+    <t>The hotel staff were kind, helpful and knowledge.  The room and bathroom were spacious and has a mini kitchen. The interior is good. Our only problem with the room is that when we check the beddings, there's some hairs and it is dirty so we didn't use it. There's a nearby restaurants. But if your looking for a shopping malls and attractions nearby you need to take a bus or a cab if you are commuting. The hotel do have free Wi-Fi, laundry facility and Continental Breakfast. The rate are affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r146334583-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>146334583</t>
+  </si>
+  <si>
+    <t>Not fancy - meets basic needs</t>
+  </si>
+  <si>
+    <t>I was in the area on business and selected this hotel because it was located in an area which met my business needs.  The homes are not fancy, basic, clean, and with a desk staff willing to help.  For someone in the area on business, it has many things necessary to make your stay comfortable, with near but restaurants, super market, banking, and easy freeway access.  Would use the hotel again if ever in the area agin for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I was in the area on business and selected this hotel because it was located in an area which met my business needs.  The homes are not fancy, basic, clean, and with a desk staff willing to help.  For someone in the area on business, it has many things necessary to make your stay comfortable, with near but restaurants, super market, banking, and easy freeway access.  Would use the hotel again if ever in the area agin for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r137476081-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>137476081</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>What more can you ask for!  It is super convenient to the 91 Freeway, it is surrounded by fast food restaurants which are within walking distance of the hotel and it is my husband and I's home away from home whenever we are in Los Angeles to visit family. Friendly staff and very affordable rates. The rooms are spacious and clean and the area is quiet. I have no complaints about this hotel.There is also a fabulous restaurant called 'M and M's right next to the hotel, should you want to get away from the fast food joints.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>What more can you ask for!  It is super convenient to the 91 Freeway, it is surrounded by fast food restaurants which are within walking distance of the hotel and it is my husband and I's home away from home whenever we are in Los Angeles to visit family. Friendly staff and very affordable rates. The rooms are spacious and clean and the area is quiet. I have no complaints about this hotel.There is also a fabulous restaurant called 'M and M's right next to the hotel, should you want to get away from the fast food joints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r134945776-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>134945776</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>It is what it is</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in July, 2012.  The initial impression wasn't too good, the first room they gave me was supposed to be non-smoking but had a strong smell of smoke in it.  There was also a maintenance person in the room fixing the sink when I got to the room after getting my key, so I asked for a different room.The next room I was given was fine.  It didn't have a "do not disturb" sign for the door so I had to get one from the desk, and nothing in the room showed the checkout time, I had to get that from the internet (it's 11am), but the room was clean, the AC worked fine, and the staff was friendly.It was also nice there were a few things within walking distance.  So not the best start to the visit, but would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in July, 2012.  The initial impression wasn't too good, the first room they gave me was supposed to be non-smoking but had a strong smell of smoke in it.  There was also a maintenance person in the room fixing the sink when I got to the room after getting my key, so I asked for a different room.The next room I was given was fine.  It didn't have a "do not disturb" sign for the door so I had to get one from the desk, and nothing in the room showed the checkout time, I had to get that from the internet (it's 11am), but the room was clean, the AC worked fine, and the staff was friendly.It was also nice there were a few things within walking distance.  So not the best start to the visit, but would probably stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r130188241-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>130188241</t>
+  </si>
+  <si>
+    <t>05/18/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Experience!</t>
+  </si>
+  <si>
+    <t>Ive stayed at the Extended Stay America in Carson multiple times and everytime they are completely friendly, helpful and accomadating. I recommend this hotel to anyone looking for a nice, quiet, comfortable, affordable room in LA! Located right by the 405/110 fwys.. It's very convienent!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Ive stayed at the Extended Stay America in Carson multiple times and everytime they are completely friendly, helpful and accomadating. I recommend this hotel to anyone looking for a nice, quiet, comfortable, affordable room in LA! Located right by the 405/110 fwys.. It's very convienent!More</t>
   </si>
 </sst>
 </file>
@@ -643,6 +1748,2852 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>178</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>231</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s">
+        <v>231</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J27" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>264</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>265</v>
+      </c>
+      <c r="X27" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>273</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>291</v>
+      </c>
+      <c r="X30" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>299</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>308</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" t="s">
+        <v>311</v>
+      </c>
+      <c r="K33" t="s">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>314</v>
+      </c>
+      <c r="X33" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" t="s">
+        <v>325</v>
+      </c>
+      <c r="L35" t="s">
+        <v>326</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>337</v>
+      </c>
+      <c r="X36" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" t="s">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s">
+        <v>344</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>345</v>
+      </c>
+      <c r="O37" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>361</v>
+      </c>
+      <c r="X39" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>361</v>
+      </c>
+      <c r="X40" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>375</v>
+      </c>
+      <c r="X41" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>379</v>
+      </c>
+      <c r="J42" t="s">
+        <v>380</v>
+      </c>
+      <c r="K42" t="s">
+        <v>381</v>
+      </c>
+      <c r="L42" t="s">
+        <v>382</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>383</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K43" t="s">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>390</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>391</v>
+      </c>
+      <c r="X43" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jrd625</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I stayed at the Extended Stay America in Carson, Calif. for 58 days.  The staff was very friendly and helpful. The smell of marijuana was a problem, coming through the bathroom vent. The staff was eventually able to rectify the problem. The location was ideal next to the I-110. Giving you access to all of southern Calif.More</t>
   </si>
   <si>
+    <t>lucior798</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r545870764-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Overall was a clean, average room. Staff was helpful friendly but wasn’t in front, had to wait until they showed up which averages 5-20 minutes. The rooms overall were of adaquate space, location was reasonable More</t>
   </si>
   <si>
+    <t>555hermanh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r532359363-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>On our first night, my husband felt something crawling on his while sleeping. The next morning we saw a roach on the table. The bed did not have a mattress pad and was very hard and uncomfortable. I did not get a good night's sleep. More</t>
   </si>
   <si>
+    <t>777la731</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r508101275-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>The building is really old. Air from the old ACsmelled like dust. Carpet was old and worn out and has a cheap motel look. Bathroom floor was sticky. TV remote was sticky, covered with greese. The only good thimg was the kitchen and fridge. Coffee in the morning was not too bad either. More</t>
   </si>
   <si>
+    <t>B2197GGrebeccah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r506005290-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Rooms smelled like smoking rooms. When we mentioned it there was no explanation or offer to move us to another room or discount the stay. Overall the property is acceptable but overpriced for what you get More</t>
   </si>
   <si>
+    <t>melissasL877VS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r504325843-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>The location was great. The rooms were very clean and spacious. I loved the fact that I could cook because it saved my family a lot of money. The staff was very friendly and helpful. I just wish the double bed rooms were at least a queen bed. It was difficult for my husband and I to share a full.  It was definitely worth the money.  I would recommend to friends and family.More</t>
   </si>
   <si>
+    <t>41brandont</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r501901451-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>Walk into the room had an odor, the outlets where not working the sink would not  drain right the internet was not working there was people fighting all night so didn't get good sleep at all my wife was scared to go out at night More</t>
   </si>
   <si>
+    <t>edpauley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r501314638-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>staff was nice over priced watch out for parking fee and taxes this was the last time i ever stay at one of there hotels!!! to many issues to list, was woken up several times by workers and fire alarms it was filthy the parking lot alone was a garbage pit.More</t>
   </si>
   <si>
+    <t>X5970DLjenniferl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r499927172-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>The service was great! And the attendants were very helpful, we really appreciated the breakfast served, but I have to admit that I was not satisfied with the cleanliness of the room and the smell of cigarette, overall it was not completely horrible and was also very least minute so we appreciate that they were able to get us in last minuteMore</t>
   </si>
   <si>
+    <t>MissVickyB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r492354793-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>You have to pay for parking, there is not a pool, there is not an ice machine, no shampoo etc. in the room, no kitchen supplies in the room, not very clean.  I pulled out a chair to sit on at the desk and it was gross.  Clean up your hotel!More</t>
   </si>
   <si>
+    <t>Ivan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r474259780-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>I can't just remind any other bad experience in hotels like this one. They do room service every week, smells to cigarettes all the hotel. Breakfast included? A shame called breakfast served in the front desk over a 2ft long table with poor coffee and a few cookies. Room feels dirty and very poor cleaning services Not recommended at all More</t>
   </si>
   <si>
+    <t>KendraMichelleHines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r437119154-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>I'm staying for a month total while I wait to get the keys to my new place. This place is great! Rooms are big enough for comfort and its really great that you can cook. The best part is definitely the staff! They all go above and beyond to make you feel at home and taken care of! Special shout out to Rosa for helping me understand and fix my billing issue. She's the best! Thank you!More</t>
   </si>
   <si>
+    <t>Shawn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r401330387-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>zach1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r383485904-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -514,6 +556,9 @@
   </si>
   <si>
     <t>May 2016</t>
+  </si>
+  <si>
+    <t>Beto A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r351726165-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -551,6 +596,9 @@
 2.Breakfast is very simple...I booked this hotel because it's close to the Stub Hub center (Los Angeles Galaxy Soccer field) it's withing a walking distance 10- 15 min save yourself the parking fee and walk. If you're going to a soccer game or any event at the stub hub this hotel is perfect.The room was clean, smelled good, comfortable bed and it had a kitchen, fridge, microwave, sink etc I know some previous reviewers complained that a coffee pot, skillets and cutting board weren't in the room. When you check in at the hotel you get your key and little flyer/ brochure that explains a few things first the housekeeping/towels and covers aren't changed daily because of the major California drought.Second  pots, cutting boards,cups,skillets  and a coffee maker are all available at the main desk all you have to do is ask.The hotel is in a good location. There's a Starbucks next door , a taco place, a BBQ restaurant, a 24/7 Jack in the box , a 24/7 gas station and a family clothing store. You don't have to drive anywhere to buy food. I walked to the stadium maybe 1-2 miles? the area seemed safe I didn't see any homeless people or sketchy people at all. The only cons I can think of are that1. No computer or printer if you need to print out your airline tickets then you're out of luck.2.Breakfast is very simple just coffee, muffins, granola and oatmeal.other than that I enjoyed my stay perfect for families you can save some money by cooking a few meals in the room instead of eating out.The hotel is about 30-40 min from downtown depending on traffic. If you're in L.A as a tourist you're going to spend some time driving to the main attractions.If you're in L.A to watch a  soccer game like me (L.A Galaxy VS Santos Laguna) then this hotel is your best bet.More</t>
   </si>
   <si>
+    <t>Dromomaniac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r336929141-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -578,6 +626,9 @@
     <t>We only stayed one night &amp; unfortunately there was only a smoking room available, and it was very smokey. Other than that, it was fine. The beds were comfy, the bathroom clean, the fridge large, the kitchenette small but functional.Despite its proximity to two busy roads we didn't notice any traffic noise at all. So, for us, its proximity to LAX was much more important than its location between busy roads &amp; you'd be hard pushed to get another LA hotel that was safe &amp; of reasonable standard, for the price.We checked out very early, but we're still offered the breakfast before leaving.For us,nthe staff friendliness makes a big difference in what is an older hotel.More</t>
   </si>
   <si>
+    <t>Roadtripgal88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r332278535-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -602,6 +653,9 @@
     <t>The Extended Stay in Carson is so close to being what I needed in a work hotel. The biggest issue I had was that there is no business center. I often need to use a computer to print things out, and although the front desk said they could do it, I definitely would have preferred to do it myself and get any additional work done in a business center type space. The rooms are an adequate size, and seemed very clean. The hallways definitely smell like smoke, but the rooms don't smell like smoke at all! It is right next to the freeway, but you can't really hear the traffic too much. BIG PLUS: there's a Starbucks right next door! Overall, definitely adequate, but maybe not quite worth the current nightly rate. More</t>
   </si>
   <si>
+    <t>katsncasinos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r311124838-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -629,6 +683,9 @@
     <t>Had just driven from Chicago in 2.5 days - this was the closest, "safest" pet-freindly hotel for us and our older golden retreiver.  Not what I expected for an Extended stay hotel - no dishes, cookware or even an ice bucket.  Pet fee was high @ $25, but it's LA folks.  Room seemed clean. no smells, and no fleas as noted in another review.  But it was teeming with young guys, bringing in cases of beer and congregating by the doors which didn't make us feel too safe.  Complimentary breakfast scimpy - coffee, juice, small rolls.  Bathroom cramped, doors to BR, outside and kitchen counter knock together.  Not a horrible stay, but I've had many that were nicer.More</t>
   </si>
   <si>
+    <t>Joyce M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r285824009-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -654,6 +711,9 @@
   </si>
   <si>
     <t>Friendly, efficient front desk staff. Easy early check in. Spacious room. Recliner was definitely a plus. Numerous electrical outlets for electronic devices. Freeway side of building was not a noise distraction. Stated all my positives before mentioning the one NEGATIVES: Within minutes in my room was bitten by fleas. Staff changed comforter, problem persisted. Staff offered another room, no change. Staff insisted I was not in pet room (well, where did the fleas come from?) MGMT: Perhaps pet friendly rooms should be isolated to one floor/wing. Finally went to store and purchased anti inching cream. Ultimate solution: keep air conditioning on high and the fleas are kept at bay!More</t>
+  </si>
+  <si>
+    <t>maynard7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r259506310-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -691,6 +751,9 @@
 A...I've been a member of Trip Advisor since 2004, and I've written over 150 reviews during that time.  I would estimate that I have given a "1 circle" rating to less than 5% of the hotels I've stayed in.  There were too many negative things that happened at this hotel to give it any more than that. When I checked in at about 330pm, the clerk told me that only one room was left and it's a smoking room. She said that the hotel is completely sold out, and there's only one room I can have because everyone else had already reserved a non-smoking room.  When I came downstairs 20 minutes later, she was talking with someone who apparently walked in with no reservation, and the girl told her that she only had non-smoking rooms available, and that she could rent one of those.  So somebody with no reservation can have a non-smoking room, but I can't?  By the way, I checked their web site that night, and they were showing rooms available that same night, and the next (not a complete sold-out situation as she had described it to me).The free WiFi worked OK.In my opinion, this is a one-star hotel, not a two-star as it had been described to me. It's just like a Motel 6, but there's a small kitchenette. The furniture is old; there are ripples in the carpet; the walls are thin.  A major flaw of this hotel is the location itself.  It was constructed on a narrow strip of land between the 91 Freeway and busy Albertoni Street.  No matter which side of the hotel you are on, you're only about 100 feet away from either the major street, or the busy freeway (just look up the address on Google Earth so you can see this for yourself).  This is something that's beyond the control of the management, but there were many other flaws I had to contend with while staying here:1. The bathtub drains so slowly that there was about 4" of standing water in the tub when I finished my shower. 2. There were dried food stains on the desk chair, which I had to clean off with a wet washcloth (shouldn't the staff have done this?). 3. The microwave oven does not have the turntable in it.  4. The bathroom fan is noisy. 5. The telephone has no placard with the hotel address and phone number.6. There was a hole in the window screen. 7. The electric plug in the bathroom didn't work, so I couldn't use my electric shaver in the bathroom.  GFCI outlets go bad sometimes, and this one needs to be replaced (I pressed the reset button, to no avail).If there had been only one or two problems with the room, I would have been more forgiving.  This many issues makes it look like necessary maintenance is being neglected.   I was on the phone with the online travel agency I used to book this hotel, and they called the front desk twice during our half hour call.  She said the hotel employee told them I couldn't change rooms, and didn't offer any other solution.  The people I dealt with at the front desk were all polite, but not effective. I was there for only 3 nights. I feel sorry for the people whose companies put them in this place for extended stays.  Each night I dreaded returning, and I couldn't wait to leave.  As a side note, the day I departed this hotel, I stayed at a different Extended Stay America, and it was a wonderful experience. I wish I had stayed there the entire time.More</t>
   </si>
   <si>
+    <t>Lakacha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r256817548-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -715,6 +778,9 @@
     <t>The staff was very warm, welcoming and always willing to assist. The room was a nice size and very clean. We had no problems with this hotel nor there service. The front desk was very helpful And professional! I would stay there again! More</t>
   </si>
   <si>
+    <t>Rolando R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r235126999-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -743,6 +809,9 @@
   </si>
   <si>
     <t>This is one Extended America My wife and I are crazy about. We stayed here the entire month of September 2014. The room was spacious and the kitchenette very clean and cozy. The hotel amenities were excellent. Continental breakfast included, unlimited cereal, coffee, apples, oranges and snack bars. It has free wi-fi but could be upgraded for more convenient use. Overall I highly recommend this for a vacation with homey ambiance. Eating places surrounds the hotel within walking distance and is close to a major freeway.More</t>
+  </si>
+  <si>
+    <t>Greg L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r233708212-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -775,6 +844,9 @@
 They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give...Will not stay at this hotel again. Absolutely no customer service at all.If you have a coupon or discount for your room it will NOT be applied until you check out. You are charged the full amount up front and refunded the discount upon checkout. If you checkout before the front desk opens (does not open until 7am or later) then you don't get the discount or you have to call the hotel and ask for the refund to be put back on your card. What a stupid, stupid policy.Don't bother booking a "specific" room online, they won't give it to you when you show up anyways. I booked a king bed suite (for an extra charge mind you) and when I showed up they said they didn't have any left and I would have to settle for a room with 2 double beds. I'm 6'3" and traveling with my girlfriend and they expect me and her to fit into a double bed or sleep in separate beds? I think not. The manager yelled from around the counter that I was getting a deal because I was getting 2 beds. How was this a deal? I paid more for the king than two doubles so I was getting ripped off.They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give this hotel my money.More</t>
   </si>
   <si>
+    <t>galvirgo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r222936950-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -802,6 +874,9 @@
     <t>Recently stayed here on business.  First time staying at an Extended Stay America.  Don't think I would ever stay in any of this brand again.  First - the positive - the room was clean, however, they must have just shampooed the carpet in my room as it was wet - wet enough to go through my socks.  I ended up putting towels (there were no many) on the floor so that I could walk without getting my feet wet to the bathroom.  Extremely small rooms for an extended stay type hotel.  If I had to stay more than one night I would be claustrophobic.  Also, you have to ask for any utensils, etc at the front desk - guess they have a high theft rate, which doesn't make me feel very comfortable.  No hair dryer - thinking this might be the same with the other conveniences they have removed from their kitchen - or was it stole?  Mattress very hard and sheets low quality - a little scratchy.  Also, when I went out to see what their grab and go breakfast was in the morning at about 7:30 am - there was nothing left except some apples I believe.  I think one could do much better than this at a different extended stay brand.More</t>
   </si>
   <si>
+    <t>Ralcho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r211211071-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -823,6 +898,9 @@
     <t>If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and...If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and coffee.  The area around the hotel seemed safe enough, but I just stayed one night, so don't know for sure.  I got a great deal on Hotwire so that made this hotel worth it.  I wouldn't pay too much for it.  But like I said, if you just need a place to stay, it is a basic but decent hotel.More</t>
   </si>
   <si>
+    <t>JayMoala</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r207267259-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -850,6 +928,9 @@
     <t>I wasn't spending much time indoors so I just needed a place to crash and this was very affordable for my 6 night stay. The room was really clean, the staff was really friendly and helpful. Somehow the toilet managed to block itself and the inhouse handy man came and fixed it real quick and even gave me tips on how to use a plunger after failing to fix it myself lol. Grab and go breakfast was convenient and also the location was really good with quite a few restaurants, 7 Elevens and fast food joints a stones throw away. Would definitely stay here again if I'm ever back in the area.More</t>
   </si>
   <si>
+    <t>Lezlee H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r204145443-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -877,6 +958,9 @@
     <t>I thought it was a great place to crash and stay for one night on a recent business trip. The neighborhood is commercial and I felt safe arriving for a late check-in. Staff very helpful, too. Loved the grab and go breakfast, too.More</t>
   </si>
   <si>
+    <t>Devron A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r194596741-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -904,6 +988,9 @@
     <t>The location is not ideal because it is located right next to the freeway, but at least the room that I stayed in was clean. They have a security guard that patrols the grounds in the evening when the front office staff takes off, which is nice.More</t>
   </si>
   <si>
+    <t>Yvettesvue3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r193268252-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -928,6 +1015,9 @@
     <t>I thoroughly enjoyed my stay it was just what I needed to get away from home. I felt like I had a mini vacation. It had been a long and stressful week, I was looking forward to getting away for the Super Bowl along with the chance to see friends. Once the party was over I wanted a place to go where no one could reach me for couple days. While driving on the 91 fwy I saw hotels and decided this was the perfect location for me. I'm happy with the choice I made.More</t>
   </si>
   <si>
+    <t>Dale K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r191809243-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -955,6 +1045,9 @@
     <t>I've stayed here before and have always had a pleasant stay so I booked here again.  Two gentlemen walked in right in front of me and there was already another gentleman being checked in.  One lady was helping the one gentleman and another young lady starting helping the two guys.  She realized they were trying to communicate with her in broken English so she started speaking Spanish.  This was a hit with them and they went back and forth speaking, laughing, giggling.  I was getting frustrated as obviously part of the conversation was social and I was just standing there waiting to be checked in.  That didn't seem to bother the clerk as she just went on and on.  Finally the other clerk got me checked in.  She checked both the other gentleman and myself in less time than the other clerk did.  She had to have spent at least 10 minutes with them and as I said it didn't bother her at all that another customer was waiting while she was just bs'ing with these two guys.  I'll have to think twice before I come back here.More</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r182501650-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -973,6 +1066,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>bmoam357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r182340981-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -997,6 +1093,9 @@
     <t>It was 10:30 at night and I had my child with me, the first room we went to smelled like smoke so I requested a different room. The next room we went to it had roaches crawling around like they own the joint! I could not believe this, I went through HotelsOne.com and explain to them the experience with the hotel and they did not want to refund the money back. The hotel canceled the reservation, but HotelsOne.com would not. It is bad enough to pay 126.09 for a night but not give a refund because of the condition's there they should have giving at lease half of my money back. I will let everyone know that HotelsOne.com is not the place to recommend for finding a hotel with. Well we did not stay there, I just could see staying somewhere with my child, to stay with roaches! I would not recommend this place to my enemies. So you tell me how would you rate something like this?More</t>
   </si>
   <si>
+    <t>Roberto M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r181761249-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1012,6 +1111,9 @@
     <t>Very nice hotel , a good customer service, good location if you would like to be close the LAX.The reception service was really kind and helpful, very comfortable room. The breakfast was not he best but It was good, I got a good deal a good price.</t>
   </si>
   <si>
+    <t>Jahmok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r166634525-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1037,6 +1139,9 @@
   </si>
   <si>
     <t>Easy check in from a very nice associate and quickly into a clean, comfortable room.  Full kitchen was nice and made for easy eats.  Not a great area but not bad.  Easy freeway access.  Plenty of restaurants nearby.  Good location to work downtown, a short 20 minute drive.  The beach is about 20 minutes away.  Convenient to all points in the South Bay.  Ports of Call is fun.More</t>
+  </si>
+  <si>
+    <t>maxus88</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r164521180-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -1090,6 +1195,9 @@
 good thing I stayed for only 1 nite...this supposed hotel is just off the 91 Riverside freeway; not far away from another Extended Stay Hotel along Vermont Ave in Gardenathe Front Office closes at 11 pm &amp; as I discovered to my horror at another Extended Stay hotel in Mishawaka, Indiana, nobody is around to answer the phone after 11 pm ( to give directions)The room at ESA/Carson is DEFINITELY bigger than the ESA in GardenaI get the feeling that ESA has a sweetheart deal with the local municipality; where the municipality can make use of the rooms to house some on WELFARE HOUSINGthat is why there is a kitchenette &amp; in house laundryI met a German couple who stayed at ESA in Phoenix, AZ &amp; they said the same thingfree cakes &amp; cereals in morningI would stay @ ESA chain of supposed hotels only as a last resort; given the clientele that I am 'rubbing shoulders' withESA is welfare housing masquerading as a 7am - 11 pm 'hotel'I would not pay more than $40 per nite for it; as it is those stayers are already doing the local municipalities such as Gardena &amp; Carson, CA... Mishawaka, Indiana a great favourdon't be fooled by ESA's 'stringent' credit criteria such as not accepting reservations &amp;/or admitting hotel stayers without a Credit Card for your info, ESA DOESN'T ACCEPT cash paymentgood thing I stayed for only 1 niteThere is an Arco gas station along Albertoni Street, Jack in the Box, Panda Express etc2 in strip mall adjacent to ESA/Carsonthe worst value for money is ESA in Gardena, CA along Vermont Ave. the rooms @ ESA/Gardena is about HALF the size of the ESA I stayed in this Carson, CA location &amp; in Mishawaka, INMore</t>
   </si>
   <si>
+    <t>Pauline M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r159447249-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1108,6 +1216,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>JOSE M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r149961404-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1135,6 +1246,9 @@
     <t>My wife and I stayed for about 5 months at Extended Stay at Carson and the staff there specially Daisy and Angelo were extremely helpful, nice and thoughtful. I recommended this hotel to my friends becuase of Daisy and Angelo. They would take care of you. They are also very professional and polite! Hope you get a chance to meet them.More</t>
   </si>
   <si>
+    <t>Dan0922</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r146347775-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1162,6 +1276,9 @@
     <t>The hotel staff were kind, helpful and knowledge.  The room and bathroom were spacious and has a mini kitchen. The interior is good. Our only problem with the room is that when we check the beddings, there's some hairs and it is dirty so we didn't use it. There's a nearby restaurants. But if your looking for a shopping malls and attractions nearby you need to take a bus or a cab if you are commuting. The hotel do have free Wi-Fi, laundry facility and Continental Breakfast. The rate are affordable.More</t>
   </si>
   <si>
+    <t>Patricia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r146334583-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1180,6 +1297,9 @@
     <t>I was in the area on business and selected this hotel because it was located in an area which met my business needs.  The homes are not fancy, basic, clean, and with a desk staff willing to help.  For someone in the area on business, it has many things necessary to make your stay comfortable, with near but restaurants, super market, banking, and easy freeway access.  Would use the hotel again if ever in the area agin for business.More</t>
   </si>
   <si>
+    <t>Fmartin1977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r137476081-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1204,6 +1324,9 @@
     <t>What more can you ask for!  It is super convenient to the 91 Freeway, it is surrounded by fast food restaurants which are within walking distance of the hotel and it is my husband and I's home away from home whenever we are in Los Angeles to visit family. Friendly staff and very affordable rates. The rooms are spacious and clean and the area is quiet. I have no complaints about this hotel.There is also a fabulous restaurant called 'M and M's right next to the hotel, should you want to get away from the fast food joints.More</t>
   </si>
   <si>
+    <t>Allie_A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r134945776-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1223,6 +1346,9 @@
   </si>
   <si>
     <t>Stayed here for two nights in July, 2012.  The initial impression wasn't too good, the first room they gave me was supposed to be non-smoking but had a strong smell of smoke in it.  There was also a maintenance person in the room fixing the sink when I got to the room after getting my key, so I asked for a different room.The next room I was given was fine.  It didn't have a "do not disturb" sign for the door so I had to get one from the desk, and nothing in the room showed the checkout time, I had to get that from the internet (it's 11am), but the room was clean, the AC worked fine, and the staff was friendly.It was also nice there were a few things within walking distance.  So not the best start to the visit, but would probably stay here again.More</t>
+  </si>
+  <si>
+    <t>emmyfelix</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r130188241-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -1752,43 +1878,47 @@
       <c r="A2" t="n">
         <v>52244</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1810,56 +1940,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52244</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1881,56 +2015,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52244</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1952,56 +2090,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52244</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2023,56 +2165,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52244</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2094,56 +2240,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52244</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146271</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2165,56 +2315,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52244</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2236,56 +2390,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52244</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2303,56 +2461,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52244</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146274</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2374,56 +2536,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52244</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2445,56 +2611,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52244</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2506,56 +2676,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52244</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146277</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2573,56 +2747,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52244</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>41288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2636,50 +2814,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52244</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146278</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2699,50 +2881,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52244</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>47560</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2760,50 +2946,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52244</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2821,56 +3011,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52244</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146280</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2882,56 +3076,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52244</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2949,56 +3147,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52244</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3016,56 +3218,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52244</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146282</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3081,47 +3287,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52244</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146283</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -3148,56 +3358,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52244</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146284</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3213,56 +3427,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52244</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>22530</v>
+      </c>
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3280,56 +3498,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52244</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>68882</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3347,56 +3569,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52244</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146285</v>
+      </c>
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3420,50 +3646,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52244</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146286</v>
+      </c>
+      <c r="C27" t="s">
+        <v>284</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="J27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="K27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3485,56 +3715,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="X27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Y27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52244</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146287</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3556,56 +3790,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="X28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52244</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146288</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3627,47 +3865,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52244</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146289</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -3694,56 +3936,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="X30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="Y30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52244</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>100725</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="J31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="K31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="L31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3765,56 +4011,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="X31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="Y31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52244</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="J32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="K32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3838,50 +4088,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52244</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146290</v>
+      </c>
+      <c r="C33" t="s">
+        <v>340</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="J33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3893,56 +4147,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="Y33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52244</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>23429</v>
+      </c>
+      <c r="C34" t="s">
+        <v>349</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="K34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="L34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3966,50 +4224,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52244</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146291</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="J35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4031,56 +4293,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52244</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146292</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -4102,56 +4368,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="X36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="Y36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52244</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>375</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O37" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4175,50 +4445,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52244</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146294</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4240,56 +4514,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52244</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146295</v>
+      </c>
+      <c r="C39" t="s">
+        <v>392</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4311,56 +4589,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="X39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="Y39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52244</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>5388</v>
+      </c>
+      <c r="C40" t="s">
+        <v>402</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="J40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4372,56 +4654,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="X40" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="Y40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52244</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146296</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4443,56 +4729,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="X41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="Y41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52244</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146297</v>
+      </c>
+      <c r="C42" t="s">
+        <v>418</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4514,56 +4804,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="X42" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52244</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146298</v>
+      </c>
+      <c r="C43" t="s">
+        <v>426</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="J43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="K43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="L43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4585,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="X43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="Y43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
@@ -1879,7 +1879,7 @@
         <v>52244</v>
       </c>
       <c r="B2" t="n">
-        <v>146266</v>
+        <v>177594</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1954,7 +1954,7 @@
         <v>52244</v>
       </c>
       <c r="B3" t="n">
-        <v>146267</v>
+        <v>177595</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -2029,7 +2029,7 @@
         <v>52244</v>
       </c>
       <c r="B4" t="n">
-        <v>146268</v>
+        <v>177596</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -2104,7 +2104,7 @@
         <v>52244</v>
       </c>
       <c r="B5" t="n">
-        <v>146269</v>
+        <v>177597</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -2179,7 +2179,7 @@
         <v>52244</v>
       </c>
       <c r="B6" t="n">
-        <v>146270</v>
+        <v>177598</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -2254,7 +2254,7 @@
         <v>52244</v>
       </c>
       <c r="B7" t="n">
-        <v>146271</v>
+        <v>177599</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -2329,7 +2329,7 @@
         <v>52244</v>
       </c>
       <c r="B8" t="n">
-        <v>146272</v>
+        <v>177600</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -2404,7 +2404,7 @@
         <v>52244</v>
       </c>
       <c r="B9" t="n">
-        <v>146273</v>
+        <v>177601</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -2475,7 +2475,7 @@
         <v>52244</v>
       </c>
       <c r="B10" t="n">
-        <v>146274</v>
+        <v>177602</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -2550,7 +2550,7 @@
         <v>52244</v>
       </c>
       <c r="B11" t="n">
-        <v>146275</v>
+        <v>177603</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -2625,7 +2625,7 @@
         <v>52244</v>
       </c>
       <c r="B12" t="n">
-        <v>146276</v>
+        <v>177604</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
@@ -2690,7 +2690,7 @@
         <v>52244</v>
       </c>
       <c r="B13" t="n">
-        <v>146277</v>
+        <v>177605</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -2822,7 +2822,7 @@
         <v>52244</v>
       </c>
       <c r="B15" t="n">
-        <v>146278</v>
+        <v>177606</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -2954,7 +2954,7 @@
         <v>52244</v>
       </c>
       <c r="B17" t="n">
-        <v>146279</v>
+        <v>177607</v>
       </c>
       <c r="C17" t="s">
         <v>188</v>
@@ -3025,7 +3025,7 @@
         <v>52244</v>
       </c>
       <c r="B18" t="n">
-        <v>146280</v>
+        <v>177608</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -3090,7 +3090,7 @@
         <v>52244</v>
       </c>
       <c r="B19" t="n">
-        <v>146281</v>
+        <v>177609</v>
       </c>
       <c r="C19" t="s">
         <v>207</v>
@@ -3232,7 +3232,7 @@
         <v>52244</v>
       </c>
       <c r="B21" t="n">
-        <v>146282</v>
+        <v>177610</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
@@ -3301,7 +3301,7 @@
         <v>52244</v>
       </c>
       <c r="B22" t="n">
-        <v>146283</v>
+        <v>177611</v>
       </c>
       <c r="C22" t="s">
         <v>237</v>
@@ -3372,7 +3372,7 @@
         <v>52244</v>
       </c>
       <c r="B23" t="n">
-        <v>146284</v>
+        <v>177612</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -3583,7 +3583,7 @@
         <v>52244</v>
       </c>
       <c r="B26" t="n">
-        <v>146285</v>
+        <v>177613</v>
       </c>
       <c r="C26" t="s">
         <v>276</v>
@@ -3654,7 +3654,7 @@
         <v>52244</v>
       </c>
       <c r="B27" t="n">
-        <v>146286</v>
+        <v>177614</v>
       </c>
       <c r="C27" t="s">
         <v>284</v>
@@ -3729,7 +3729,7 @@
         <v>52244</v>
       </c>
       <c r="B28" t="n">
-        <v>146287</v>
+        <v>177615</v>
       </c>
       <c r="C28" t="s">
         <v>294</v>
@@ -3804,7 +3804,7 @@
         <v>52244</v>
       </c>
       <c r="B29" t="n">
-        <v>146288</v>
+        <v>177616</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -3879,7 +3879,7 @@
         <v>52244</v>
       </c>
       <c r="B30" t="n">
-        <v>146289</v>
+        <v>177617</v>
       </c>
       <c r="C30" t="s">
         <v>314</v>
@@ -4096,7 +4096,7 @@
         <v>52244</v>
       </c>
       <c r="B33" t="n">
-        <v>146290</v>
+        <v>177618</v>
       </c>
       <c r="C33" t="s">
         <v>340</v>
@@ -4232,7 +4232,7 @@
         <v>52244</v>
       </c>
       <c r="B35" t="n">
-        <v>146291</v>
+        <v>177619</v>
       </c>
       <c r="C35" t="s">
         <v>355</v>
@@ -4307,7 +4307,7 @@
         <v>52244</v>
       </c>
       <c r="B36" t="n">
-        <v>146292</v>
+        <v>177620</v>
       </c>
       <c r="C36" t="s">
         <v>365</v>
@@ -4382,7 +4382,7 @@
         <v>52244</v>
       </c>
       <c r="B37" t="n">
-        <v>146293</v>
+        <v>177621</v>
       </c>
       <c r="C37" t="s">
         <v>375</v>
@@ -4453,7 +4453,7 @@
         <v>52244</v>
       </c>
       <c r="B38" t="n">
-        <v>146294</v>
+        <v>177622</v>
       </c>
       <c r="C38" t="s">
         <v>382</v>
@@ -4528,7 +4528,7 @@
         <v>52244</v>
       </c>
       <c r="B39" t="n">
-        <v>146295</v>
+        <v>177623</v>
       </c>
       <c r="C39" t="s">
         <v>392</v>
@@ -4668,7 +4668,7 @@
         <v>52244</v>
       </c>
       <c r="B41" t="n">
-        <v>146296</v>
+        <v>177624</v>
       </c>
       <c r="C41" t="s">
         <v>409</v>
@@ -4743,7 +4743,7 @@
         <v>52244</v>
       </c>
       <c r="B42" t="n">
-        <v>146297</v>
+        <v>177625</v>
       </c>
       <c r="C42" t="s">
         <v>418</v>
@@ -4818,7 +4818,7 @@
         <v>52244</v>
       </c>
       <c r="B43" t="n">
-        <v>146298</v>
+        <v>177626</v>
       </c>
       <c r="C43" t="s">
         <v>426</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_253.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="635">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jrd625</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r593269237-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>32177</t>
+  </si>
+  <si>
+    <t>490925</t>
+  </si>
+  <si>
+    <t>593269237</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Average place</t>
+  </si>
+  <si>
+    <t>We stayed there for 2 nights. The staff was very nice and accommodating.  The hotel is close to plenty of amenities. The room was clean. However it smelled musty.  There's a $15 per night charge for parking, which is not mentioned on the website.  We were on the 1st floor and could hear the people above us. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed there for 2 nights. The staff was very nice and accommodating.  The hotel is close to plenty of amenities. The room was clean. However it smelled musty.  There's a $15 per night charge for parking, which is not mentioned on the website.  We were on the 1st floor and could hear the people above us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r575065995-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>575065995</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Relaxation</t>
+  </si>
+  <si>
+    <t>I have too say i was amazed by the roomThe bed was so comforrtableMe and my girlfriend loved itThe customer service was absouetly perfectI was so amused too see a stove inside the room and a big fridge which i trully enjoyed.Now this hotel i definetly recommend too families. My name is Daniel and again i loved it. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>I have too say i was amazed by the roomThe bed was so comforrtableMe and my girlfriend loved itThe customer service was absouetly perfectI was so amused too see a stove inside the room and a big fridge which i trully enjoyed.Now this hotel i definetly recommend too families. My name is Daniel and again i loved it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r590668656-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>590668656</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Smells like pot and cigarettes really bad!</t>
+  </si>
+  <si>
+    <t>Stayed here for a 5k the next day. Well it’s not easy to sleep when the smoke smell is so bad that your nose gets congested from the residual smell. Not even opening the windows helps. The smell is permeated into the walls. In fact, turning on the A/C make sure it worse since they don’t clean the filters. No thanks. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for a 5k the next day. Well it’s not easy to sleep when the smoke smell is so bad that your nose gets congested from the residual smell. Not even opening the windows helps. The smell is permeated into the walls. In fact, turning on the A/C make sure it worse since they don’t clean the filters. No thanks. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r562423509-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
-    <t>32177</t>
-  </si>
-  <si>
-    <t>490925</t>
-  </si>
-  <si>
     <t>562423509</t>
   </si>
   <si>
@@ -189,9 +270,6 @@
     <t>I stayed at the Extended Stay America in Carson, Calif. for 58 days.  The staff was very friendly and helpful. The smell of marijuana was a problem, coming through the bathroom vent. The staff was eventually able to rectify the problem. The location was ideal next to the I-110. Giving you access to all of southern Calif.More</t>
   </si>
   <si>
-    <t>lucior798</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r545870764-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -222,9 +300,6 @@
     <t>Overall was a clean, average room. Staff was helpful friendly but wasn’t in front, had to wait until they showed up which averages 5-20 minutes. The rooms overall were of adaquate space, location was reasonable More</t>
   </si>
   <si>
-    <t>555hermanh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r532359363-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -252,7 +327,58 @@
     <t>On our first night, my husband felt something crawling on his while sleeping. The next morning we saw a roach on the table. The bed did not have a mattress pad and was very hard and uncomfortable. I did not get a good night's sleep. More</t>
   </si>
   <si>
-    <t>777la731</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r529277995-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>529277995</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Love it!</t>
+  </si>
+  <si>
+    <t>Perfect for a home away from home!!! Complete with a large refrigerator, microwave and stove so you aren't forced to feed the family fast food. We stayed here for a full week and will gladly do it again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Perfect for a home away from home!!! Complete with a large refrigerator, microwave and stove so you aren't forced to feed the family fast food. We stayed here for a full week and will gladly do it again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r510904350-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>510904350</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>+ $15.00 per day Parking</t>
+  </si>
+  <si>
+    <t>When you're considering staying here and checking the room rates make sure you add $15.00 per day for parking.  NO, it is not included in the room rate shown.  What a rip off.  There is a sign at the front desk saying this is an additional charge.  I asked if this was on their web site.  I was told yes and when I checked yes it was, near the end of their terms buried in the small print.  No I'll never stay here again and I certainly won't recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>When you're considering staying here and checking the room rates make sure you add $15.00 per day for parking.  NO, it is not included in the room rate shown.  What a rip off.  There is a sign at the front desk saying this is an additional charge.  I asked if this was on their web site.  I was told yes and when I checked yes it was, near the end of their terms buried in the small print.  No I'll never stay here again and I certainly won't recommend it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r508101275-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -285,9 +411,6 @@
     <t>The building is really old. Air from the old ACsmelled like dust. Carpet was old and worn out and has a cheap motel look. Bathroom floor was sticky. TV remote was sticky, covered with greese. The only good thimg was the kitchen and fridge. Coffee in the morning was not too bad either. More</t>
   </si>
   <si>
-    <t>B2197GGrebeccah</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r506005290-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -315,9 +438,6 @@
     <t>Rooms smelled like smoking rooms. When we mentioned it there was no explanation or offer to move us to another room or discount the stay. Overall the property is acceptable but overpriced for what you get More</t>
   </si>
   <si>
-    <t>melissasL877VS</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r504325843-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -342,7 +462,46 @@
     <t>The location was great. The rooms were very clean and spacious. I loved the fact that I could cook because it saved my family a lot of money. The staff was very friendly and helpful. I just wish the double bed rooms were at least a queen bed. It was difficult for my husband and I to share a full.  It was definitely worth the money.  I would recommend to friends and family.More</t>
   </si>
   <si>
-    <t>41brandont</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r503225649-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>503225649</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Over priced and unsatisfactory</t>
+  </si>
+  <si>
+    <t>Will never stay here again. I rented 4 rooms for 5 days for a conference we were having, it was almost $4000, and the management still charged us $15 a day for parking. I hav stayed here many times before and have recommended this hotel to others and never had to pay for parking. Breakfast was a joke!!! Muffins and coffee is not breakfast. The manager could or wouldn't address any of my complaints, it was too late for me to find another hotel so I had to deal with the accommodation. Rooms were not cleaned during our 5 day stay. Rooms smelled like cigarettes... Will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Will never stay here again. I rented 4 rooms for 5 days for a conference we were having, it was almost $4000, and the management still charged us $15 a day for parking. I hav stayed here many times before and have recommended this hotel to others and never had to pay for parking. Breakfast was a joke!!! Muffins and coffee is not breakfast. The manager could or wouldn't address any of my complaints, it was too late for me to find another hotel so I had to deal with the accommodation. Rooms were not cleaned during our 5 day stay. Rooms smelled like cigarettes... Will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r502900632-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>502900632</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Clean hotel, lots of space, amazing water power on shower. I didn't have any problem. They're right next to a few food places. Very convenient. Wasnt too pricey either. Wish there was a pool or hot tub and breakfast didnt end at 930. MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean hotel, lots of space, amazing water power on shower. I didn't have any problem. They're right next to a few food places. Very convenient. Wasnt too pricey either. Wish there was a pool or hot tub and breakfast didnt end at 930. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r501901451-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -369,9 +528,6 @@
     <t>Walk into the room had an odor, the outlets where not working the sink would not  drain right the internet was not working there was people fighting all night so didn't get good sleep at all my wife was scared to go out at night More</t>
   </si>
   <si>
-    <t>edpauley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r501314638-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -399,9 +555,6 @@
     <t>staff was nice over priced watch out for parking fee and taxes this was the last time i ever stay at one of there hotels!!! to many issues to list, was woken up several times by workers and fire alarms it was filthy the parking lot alone was a garbage pit.More</t>
   </si>
   <si>
-    <t>X5970DLjenniferl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r499927172-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -426,7 +579,55 @@
     <t>The service was great! And the attendants were very helpful, we really appreciated the breakfast served, but I have to admit that I was not satisfied with the cleanliness of the room and the smell of cigarette, overall it was not completely horrible and was also very least minute so we appreciate that they were able to get us in last minuteMore</t>
   </si>
   <si>
-    <t>MissVickyB</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r495754300-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>495754300</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Me and my boys had a wonderful time . Clean and relaxing environment. Great accommodation with everything that we needed. Needed an extra sheet , the front desk Attendant Tony rushed it right up. Very spacious especially for my two little boys.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Me and my boys had a wonderful time . Clean and relaxing environment. Great accommodation with everything that we needed. Needed an extra sheet , the front desk Attendant Tony rushed it right up. Very spacious especially for my two little boys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r493961450-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>493961450</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Incompetence</t>
+  </si>
+  <si>
+    <t>Booked smoking room 6/4 and arrived to be told they went non smoking. Showed them RSVP confirmation and told that was "Preference". How can u have preference if it is a non smoking hotel. No advance notice. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Booked smoking room 6/4 and arrived to be told they went non smoking. Showed them RSVP confirmation and told that was "Preference". How can u have preference if it is a non smoking hotel. No advance notice. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r492354793-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -444,9 +645,6 @@
     <t>You have to pay for parking, there is not a pool, there is not an ice machine, no shampoo etc. in the room, no kitchen supplies in the room, not very clean.  I pulled out a chair to sit on at the desk and it was gross.  Clean up your hotel!MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded June 12, 2017</t>
   </si>
   <si>
@@ -456,9 +654,6 @@
     <t>You have to pay for parking, there is not a pool, there is not an ice machine, no shampoo etc. in the room, no kitchen supplies in the room, not very clean.  I pulled out a chair to sit on at the desk and it was gross.  Clean up your hotel!More</t>
   </si>
   <si>
-    <t>Ivan C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r474259780-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -486,9 +681,6 @@
     <t>I can't just remind any other bad experience in hotels like this one. They do room service every week, smells to cigarettes all the hotel. Breakfast included? A shame called breakfast served in the front desk over a 2ft long table with poor coffee and a few cookies. Room feels dirty and very poor cleaning services Not recommended at all More</t>
   </si>
   <si>
-    <t>KendraMichelleHines</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r437119154-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -516,7 +708,58 @@
     <t>I'm staying for a month total while I wait to get the keys to my new place. This place is great! Rooms are big enough for comfort and its really great that you can cook. The best part is definitely the staff! They all go above and beyond to make you feel at home and taken care of! Special shout out to Rosa for helping me understand and fix my billing issue. She's the best! Thank you!More</t>
   </si>
   <si>
-    <t>Shawn D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r421189696-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>421189696</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Would definitely stay again!</t>
+  </si>
+  <si>
+    <t>Came to town with my brother to celebrate a birthday. Hotel was just what I imagined, very kind and attentive staff members and very convenient to hop on and off the highway. Plus Carson, CA is very centered meaning its landmarks are such as Long Beach, Manhattan Beach, Santa Monica, Hollywood, Downtown are all within a manageable driving distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Came to town with my brother to celebrate a birthday. Hotel was just what I imagined, very kind and attentive staff members and very convenient to hop on and off the highway. Plus Carson, CA is very centered meaning its landmarks are such as Long Beach, Manhattan Beach, Santa Monica, Hollywood, Downtown are all within a manageable driving distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r405891410-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>405891410</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>The Terrible Motel posing as a hotel</t>
+  </si>
+  <si>
+    <t>Yuck: Very questionable patrons in and out the hotelNo security what so everNo running hot water in my roomStains ALL THROUGHOUT the room including shower curtain and KitchenWaited for 20 minutes to get checked in Not a safe neighborhood AT ALLMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Yuck: Very questionable patrons in and out the hotelNo security what so everNo running hot water in my roomStains ALL THROUGHOUT the room including shower curtain and KitchenWaited for 20 minutes to get checked in Not a safe neighborhood AT ALLMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r401330387-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -534,12 +777,6 @@
     <t xml:space="preserve">For the money the room is pretty good.staff was helpful when checking in.location is ok? Some iffy characters staying here but overall not bad! The whole free breakfast thing is a complete joke! They have free coffee and a granola bar but that's it! </t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>zach1987</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r383485904-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -556,9 +793,6 @@
   </si>
   <si>
     <t>May 2016</t>
-  </si>
-  <si>
-    <t>Beto A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r351726165-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -596,7 +830,43 @@
 2.Breakfast is very simple...I booked this hotel because it's close to the Stub Hub center (Los Angeles Galaxy Soccer field) it's withing a walking distance 10- 15 min save yourself the parking fee and walk. If you're going to a soccer game or any event at the stub hub this hotel is perfect.The room was clean, smelled good, comfortable bed and it had a kitchen, fridge, microwave, sink etc I know some previous reviewers complained that a coffee pot, skillets and cutting board weren't in the room. When you check in at the hotel you get your key and little flyer/ brochure that explains a few things first the housekeeping/towels and covers aren't changed daily because of the major California drought.Second  pots, cutting boards,cups,skillets  and a coffee maker are all available at the main desk all you have to do is ask.The hotel is in a good location. There's a Starbucks next door , a taco place, a BBQ restaurant, a 24/7 Jack in the box , a 24/7 gas station and a family clothing store. You don't have to drive anywhere to buy food. I walked to the stadium maybe 1-2 miles? the area seemed safe I didn't see any homeless people or sketchy people at all. The only cons I can think of are that1. No computer or printer if you need to print out your airline tickets then you're out of luck.2.Breakfast is very simple just coffee, muffins, granola and oatmeal.other than that I enjoyed my stay perfect for families you can save some money by cooking a few meals in the room instead of eating out.The hotel is about 30-40 min from downtown depending on traffic. If you're in L.A as a tourist you're going to spend some time driving to the main attractions.If you're in L.A to watch a  soccer game like me (L.A Galaxy VS Santos Laguna) then this hotel is your best bet.More</t>
   </si>
   <si>
-    <t>Dromomaniac</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r348031222-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>348031222</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>No one seems to care</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel. It was fairly clean but that is the only positive thing I can say about it. No maid service, not enough toilet paper, no coffee pot, breakfast was a complete joke-this hotel should not claim free breakfast-granola bars and apples and empty coffee containers. The staff was too busy talking to bother refilling the few items that were offered. The entire hotel smelled like marijuana-really, really strongly. Location was scary at best. At checkout we were asked how things were. I said not good. The employee just looked at me and said, oh well have a nice day. I would not recommend this hotel to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel. It was fairly clean but that is the only positive thing I can say about it. No maid service, not enough toilet paper, no coffee pot, breakfast was a complete joke-this hotel should not claim free breakfast-granola bars and apples and empty coffee containers. The staff was too busy talking to bother refilling the few items that were offered. The entire hotel smelled like marijuana-really, really strongly. Location was scary at best. At checkout we were asked how things were. I said not good. The employee just looked at me and said, oh well have a nice day. I would not recommend this hotel to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r345100485-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>345100485</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I first walked in to the room, I could tell it hadn't been used in a while. The sink was clogged and had dirty brown water in it when we walked in. When the heat was turned on, a nasty burnt-hair smell was emitted and stayed for about 15 minutes. Our heater was cold even on the heat setting set at 75. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r336929141-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -626,9 +896,6 @@
     <t>We only stayed one night &amp; unfortunately there was only a smoking room available, and it was very smokey. Other than that, it was fine. The beds were comfy, the bathroom clean, the fridge large, the kitchenette small but functional.Despite its proximity to two busy roads we didn't notice any traffic noise at all. So, for us, its proximity to LAX was much more important than its location between busy roads &amp; you'd be hard pushed to get another LA hotel that was safe &amp; of reasonable standard, for the price.We checked out very early, but we're still offered the breakfast before leaving.For us,nthe staff friendliness makes a big difference in what is an older hotel.More</t>
   </si>
   <si>
-    <t>Roadtripgal88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r332278535-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -653,9 +920,6 @@
     <t>The Extended Stay in Carson is so close to being what I needed in a work hotel. The biggest issue I had was that there is no business center. I often need to use a computer to print things out, and although the front desk said they could do it, I definitely would have preferred to do it myself and get any additional work done in a business center type space. The rooms are an adequate size, and seemed very clean. The hallways definitely smell like smoke, but the rooms don't smell like smoke at all! It is right next to the freeway, but you can't really hear the traffic too much. BIG PLUS: there's a Starbucks right next door! Overall, definitely adequate, but maybe not quite worth the current nightly rate. More</t>
   </si>
   <si>
-    <t>katsncasinos</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r311124838-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -683,7 +947,55 @@
     <t>Had just driven from Chicago in 2.5 days - this was the closest, "safest" pet-freindly hotel for us and our older golden retreiver.  Not what I expected for an Extended stay hotel - no dishes, cookware or even an ice bucket.  Pet fee was high @ $25, but it's LA folks.  Room seemed clean. no smells, and no fleas as noted in another review.  But it was teeming with young guys, bringing in cases of beer and congregating by the doors which didn't make us feel too safe.  Complimentary breakfast scimpy - coffee, juice, small rolls.  Bathroom cramped, doors to BR, outside and kitchen counter knock together.  Not a horrible stay, but I've had many that were nicer.More</t>
   </si>
   <si>
-    <t>Joyce M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r310817692-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>310817692</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>Dark hallways, musty smelling rooms :( I don't think I can put myself through another stay here. Thank god It was just a room for a night to wash up and get dressed. So it served its purpose. Otherwise, not for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Dark hallways, musty smelling rooms :( I don't think I can put myself through another stay here. Thank god It was just a room for a night to wash up and get dressed. So it served its purpose. Otherwise, not for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r308375800-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>308375800</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>UnHealthy</t>
+  </si>
+  <si>
+    <t>The carpets are way over due for new CARPET...wore white socks and the bottoms were VERY!!!@ dirty. Had to wash them right away. The parking really needs to be steamed cleaned and better security. Entrance glass doors needed to be cleaned as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>The carpets are way over due for new CARPET...wore white socks and the bottoms were VERY!!!@ dirty. Had to wash them right away. The parking really needs to be steamed cleaned and better security. Entrance glass doors needed to be cleaned as well.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r285824009-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -711,9 +1023,6 @@
   </si>
   <si>
     <t>Friendly, efficient front desk staff. Easy early check in. Spacious room. Recliner was definitely a plus. Numerous electrical outlets for electronic devices. Freeway side of building was not a noise distraction. Stated all my positives before mentioning the one NEGATIVES: Within minutes in my room was bitten by fleas. Staff changed comforter, problem persisted. Staff offered another room, no change. Staff insisted I was not in pet room (well, where did the fleas come from?) MGMT: Perhaps pet friendly rooms should be isolated to one floor/wing. Finally went to store and purchased anti inching cream. Ultimate solution: keep air conditioning on high and the fleas are kept at bay!More</t>
-  </si>
-  <si>
-    <t>maynard7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r259506310-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -751,9 +1060,6 @@
 A...I've been a member of Trip Advisor since 2004, and I've written over 150 reviews during that time.  I would estimate that I have given a "1 circle" rating to less than 5% of the hotels I've stayed in.  There were too many negative things that happened at this hotel to give it any more than that. When I checked in at about 330pm, the clerk told me that only one room was left and it's a smoking room. She said that the hotel is completely sold out, and there's only one room I can have because everyone else had already reserved a non-smoking room.  When I came downstairs 20 minutes later, she was talking with someone who apparently walked in with no reservation, and the girl told her that she only had non-smoking rooms available, and that she could rent one of those.  So somebody with no reservation can have a non-smoking room, but I can't?  By the way, I checked their web site that night, and they were showing rooms available that same night, and the next (not a complete sold-out situation as she had described it to me).The free WiFi worked OK.In my opinion, this is a one-star hotel, not a two-star as it had been described to me. It's just like a Motel 6, but there's a small kitchenette. The furniture is old; there are ripples in the carpet; the walls are thin.  A major flaw of this hotel is the location itself.  It was constructed on a narrow strip of land between the 91 Freeway and busy Albertoni Street.  No matter which side of the hotel you are on, you're only about 100 feet away from either the major street, or the busy freeway (just look up the address on Google Earth so you can see this for yourself).  This is something that's beyond the control of the management, but there were many other flaws I had to contend with while staying here:1. The bathtub drains so slowly that there was about 4" of standing water in the tub when I finished my shower. 2. There were dried food stains on the desk chair, which I had to clean off with a wet washcloth (shouldn't the staff have done this?). 3. The microwave oven does not have the turntable in it.  4. The bathroom fan is noisy. 5. The telephone has no placard with the hotel address and phone number.6. There was a hole in the window screen. 7. The electric plug in the bathroom didn't work, so I couldn't use my electric shaver in the bathroom.  GFCI outlets go bad sometimes, and this one needs to be replaced (I pressed the reset button, to no avail).If there had been only one or two problems with the room, I would have been more forgiving.  This many issues makes it look like necessary maintenance is being neglected.   I was on the phone with the online travel agency I used to book this hotel, and they called the front desk twice during our half hour call.  She said the hotel employee told them I couldn't change rooms, and didn't offer any other solution.  The people I dealt with at the front desk were all polite, but not effective. I was there for only 3 nights. I feel sorry for the people whose companies put them in this place for extended stays.  Each night I dreaded returning, and I couldn't wait to leave.  As a side note, the day I departed this hotel, I stayed at a different Extended Stay America, and it was a wonderful experience. I wish I had stayed there the entire time.More</t>
   </si>
   <si>
-    <t>Lakacha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r256817548-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -778,7 +1084,54 @@
     <t>The staff was very warm, welcoming and always willing to assist. The room was a nice size and very clean. We had no problems with this hotel nor there service. The front desk was very helpful And professional! I would stay there again! More</t>
   </si>
   <si>
-    <t>Rolando R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r253278456-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>253278456</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Affordable and Spacious</t>
+  </si>
+  <si>
+    <t>I stay here for 13 nights between Jan and Feb 2015. The rooms are very spacious, especially the King size bedroom. This is a place where you can stay for at least a month due to the mini kitchen that is installed. This room was a smoking room on the third floor, which was away from traffic noise. The only thing I see that was a distraction was the high traffic of what seemed to be homesteaders. I am not sure what the length of stay policy is, but some seem to have been there a long time, with large dogs even.The maid service was only once per week but she done an excellent job each time. The Wi-Fi was the strongest I have seen in any hotel so far. It just might have been my location to the antenna. Overall, the property was kept clean and safe. The Management, crew and security done an excellent job.I chose this location because I needed the access to that part of the county. The price was about right for the level of service provided. They were pretty much as advertised except the homesteader.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I stay here for 13 nights between Jan and Feb 2015. The rooms are very spacious, especially the King size bedroom. This is a place where you can stay for at least a month due to the mini kitchen that is installed. This room was a smoking room on the third floor, which was away from traffic noise. The only thing I see that was a distraction was the high traffic of what seemed to be homesteaders. I am not sure what the length of stay policy is, but some seem to have been there a long time, with large dogs even.The maid service was only once per week but she done an excellent job each time. The Wi-Fi was the strongest I have seen in any hotel so far. It just might have been my location to the antenna. Overall, the property was kept clean and safe. The Management, crew and security done an excellent job.I chose this location because I needed the access to that part of the county. The price was about right for the level of service provided. They were pretty much as advertised except the homesteader.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r235385460-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>235385460</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Was just an okay stay...</t>
+  </si>
+  <si>
+    <t>The hotel looks nice and is clean; however, the customer service is lacking a bit.  I requested early check in as I was attending a sporting event at the Stub Hub Center (about 1/2 mile from the hotel).  I was meeting family members there traveling from Central California that had arrived at the hotel about an hour to an hour and a half before I did, and were on the list waiting for early check in as well.  When I arrived at the hotel only one person was working the desk, and I waited in line (with the only person in front of me already being helped) for about 15-20 minutes.  I was told that I would be called when the room was available.  I told the lady at the desk that I would wait in the lobby.  Check in is at 3pm and I was let into my room about 2:20ish.  My family members who had arrived before me, did not get into their room until after 3pm, being told their room was not ready yet.  If you want early check in, stay in the lobby!   Plus, there was no difference in our rooms, even though I upgraded my room and paid more per night.  Get the standard room!
+The room was spacious and had a refrigerator, 2 electric burner stove top, and a sink.  The windows opened which was nice to let in the night breeze. This hotel...The hotel looks nice and is clean; however, the customer service is lacking a bit.  I requested early check in as I was attending a sporting event at the Stub Hub Center (about 1/2 mile from the hotel).  I was meeting family members there traveling from Central California that had arrived at the hotel about an hour to an hour and a half before I did, and were on the list waiting for early check in as well.  When I arrived at the hotel only one person was working the desk, and I waited in line (with the only person in front of me already being helped) for about 15-20 minutes.  I was told that I would be called when the room was available.  I told the lady at the desk that I would wait in the lobby.  Check in is at 3pm and I was let into my room about 2:20ish.  My family members who had arrived before me, did not get into their room until after 3pm, being told their room was not ready yet.  If you want early check in, stay in the lobby!   Plus, there was no difference in our rooms, even though I upgraded my room and paid more per night.  Get the standard room!The room was spacious and had a refrigerator, 2 electric burner stove top, and a sink.  The windows opened which was nice to let in the night breeze. This hotel offers a continental breakfast which is really substandard to other hotels.  Of course there's coffee, tea, and hot chocolate, but the food items are instant oatmeal, fruit (apples, oranges, &amp; bananas), granola bars, and small blueberry or chocolate muffins (smaller than you'd get out of a vending machine). There are restaurants (Panda express, Fat Burger, El Pescador) in the next parking lot over which is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2014</t>
+  </si>
+  <si>
+    <t>The hotel looks nice and is clean; however, the customer service is lacking a bit.  I requested early check in as I was attending a sporting event at the Stub Hub Center (about 1/2 mile from the hotel).  I was meeting family members there traveling from Central California that had arrived at the hotel about an hour to an hour and a half before I did, and were on the list waiting for early check in as well.  When I arrived at the hotel only one person was working the desk, and I waited in line (with the only person in front of me already being helped) for about 15-20 minutes.  I was told that I would be called when the room was available.  I told the lady at the desk that I would wait in the lobby.  Check in is at 3pm and I was let into my room about 2:20ish.  My family members who had arrived before me, did not get into their room until after 3pm, being told their room was not ready yet.  If you want early check in, stay in the lobby!   Plus, there was no difference in our rooms, even though I upgraded my room and paid more per night.  Get the standard room!
+The room was spacious and had a refrigerator, 2 electric burner stove top, and a sink.  The windows opened which was nice to let in the night breeze. This hotel...The hotel looks nice and is clean; however, the customer service is lacking a bit.  I requested early check in as I was attending a sporting event at the Stub Hub Center (about 1/2 mile from the hotel).  I was meeting family members there traveling from Central California that had arrived at the hotel about an hour to an hour and a half before I did, and were on the list waiting for early check in as well.  When I arrived at the hotel only one person was working the desk, and I waited in line (with the only person in front of me already being helped) for about 15-20 minutes.  I was told that I would be called when the room was available.  I told the lady at the desk that I would wait in the lobby.  Check in is at 3pm and I was let into my room about 2:20ish.  My family members who had arrived before me, did not get into their room until after 3pm, being told their room was not ready yet.  If you want early check in, stay in the lobby!   Plus, there was no difference in our rooms, even though I upgraded my room and paid more per night.  Get the standard room!The room was spacious and had a refrigerator, 2 electric burner stove top, and a sink.  The windows opened which was nice to let in the night breeze. This hotel offers a continental breakfast which is really substandard to other hotels.  Of course there's coffee, tea, and hot chocolate, but the food items are instant oatmeal, fruit (apples, oranges, &amp; bananas), granola bars, and small blueberry or chocolate muffins (smaller than you'd get out of a vending machine). There are restaurants (Panda express, Fat Burger, El Pescador) in the next parking lot over which is convenient.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r235126999-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -799,9 +1152,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 23, 2014</t>
   </si>
   <si>
@@ -809,9 +1159,6 @@
   </si>
   <si>
     <t>This is one Extended America My wife and I are crazy about. We stayed here the entire month of September 2014. The room was spacious and the kitchenette very clean and cozy. The hotel amenities were excellent. Continental breakfast included, unlimited cereal, coffee, apples, oranges and snack bars. It has free wi-fi but could be upgraded for more convenient use. Overall I highly recommend this for a vacation with homey ambiance. Eating places surrounds the hotel within walking distance and is close to a major freeway.More</t>
-  </si>
-  <si>
-    <t>Greg L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r233708212-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -844,9 +1191,6 @@
 They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give...Will not stay at this hotel again. Absolutely no customer service at all.If you have a coupon or discount for your room it will NOT be applied until you check out. You are charged the full amount up front and refunded the discount upon checkout. If you checkout before the front desk opens (does not open until 7am or later) then you don't get the discount or you have to call the hotel and ask for the refund to be put back on your card. What a stupid, stupid policy.Don't bother booking a "specific" room online, they won't give it to you when you show up anyways. I booked a king bed suite (for an extra charge mind you) and when I showed up they said they didn't have any left and I would have to settle for a room with 2 double beds. I'm 6'3" and traveling with my girlfriend and they expect me and her to fit into a double bed or sleep in separate beds? I think not. The manager yelled from around the counter that I was getting a deal because I was getting 2 beds. How was this a deal? I paid more for the king than two doubles so I was getting ripped off.They do not know how to run a hotel and the customer service is non-existent. I would rather save $20 and stay at a Motel 6 then give this hotel my money.More</t>
   </si>
   <si>
-    <t>galvirgo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r222936950-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -874,7 +1218,46 @@
     <t>Recently stayed here on business.  First time staying at an Extended Stay America.  Don't think I would ever stay in any of this brand again.  First - the positive - the room was clean, however, they must have just shampooed the carpet in my room as it was wet - wet enough to go through my socks.  I ended up putting towels (there were no many) on the floor so that I could walk without getting my feet wet to the bathroom.  Extremely small rooms for an extended stay type hotel.  If I had to stay more than one night I would be claustrophobic.  Also, you have to ask for any utensils, etc at the front desk - guess they have a high theft rate, which doesn't make me feel very comfortable.  No hair dryer - thinking this might be the same with the other conveniences they have removed from their kitchen - or was it stole?  Mattress very hard and sheets low quality - a little scratchy.  Also, when I went out to see what their grab and go breakfast was in the morning at about 7:30 am - there was nothing left except some apples I believe.  I think one could do much better than this at a different extended stay brand.More</t>
   </si>
   <si>
-    <t>Ralcho</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r218352569-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>218352569</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>money's worth and more</t>
+  </si>
+  <si>
+    <t>this is the most decent and accommodating hotel of its class.  the rooms are well designed and furnishings to suit.  clean and service is excellent.  quite and in a good neighborhood excessiable to your shopping and dinning needs.  you just can not say anything negative comments for the price you pay for such an excellent accommodation.  I and wife did enjoy our stay and would definitely book here again if we should be in the area in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>this is the most decent and accommodating hotel of its class.  the rooms are well designed and furnishings to suit.  clean and service is excellent.  quite and in a good neighborhood excessiable to your shopping and dinning needs.  you just can not say anything negative comments for the price you pay for such an excellent accommodation.  I and wife did enjoy our stay and would definitely book here again if we should be in the area in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r216599798-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>216599798</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Not happy with what i paid.!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bathroom door was dirty. The shower wall was dirty as well. The bed cover on top was not properly made also the bed frame was stained. The check-in process took a long time. There was around 6 or more people waiting for a long time. For the price I paid I wont be staying there anymore.!! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r211211071-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -898,9 +1281,6 @@
     <t>If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and...If you don't go in expecting much, then this hotel is fine.  It is extremely basic in all ways, but if that is all you need you can't go wrong.  Check in was easy and fast, although if you are under 5 foot 5 inches tall, you might have a problem at the check in desk as it is very high.  The woman in front of me could barely sign the papers because she was short and the desk was so high.  It came up to my upper chest and I am 5 foot 10 inches tall.  Anyway, the room was very basic with your typical "kitchen" area and then the bed area.  But it was clean and smelled fine, which is always important.  My room had two small table/desks which was nice for eating and for working.  I was surprised to find a recliner in the room.  That was a bonus.  The hotel is right next to a freeway, but I kept the fan on the A/C going all night and the noise didn't bother me.  There is a strip mall right next door with several restaurants, so you can get something to eat pretty easily.  The staff was helpful and friendly.  My room didn't have any shampoo and they got me some right away.  The breakfast is a bit pathetic, but at least it is something.  It has breakfast bars, muffins, fruit -like apples and bananas, oatmeal and coffee.  The area around the hotel seemed safe enough, but I just stayed one night, so don't know for sure.  I got a great deal on Hotwire so that made this hotel worth it.  I wouldn't pay too much for it.  But like I said, if you just need a place to stay, it is a basic but decent hotel.More</t>
   </si>
   <si>
-    <t>JayMoala</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r207267259-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -928,9 +1308,6 @@
     <t>I wasn't spending much time indoors so I just needed a place to crash and this was very affordable for my 6 night stay. The room was really clean, the staff was really friendly and helpful. Somehow the toilet managed to block itself and the inhouse handy man came and fixed it real quick and even gave me tips on how to use a plunger after failing to fix it myself lol. Grab and go breakfast was convenient and also the location was really good with quite a few restaurants, 7 Elevens and fast food joints a stones throw away. Would definitely stay here again if I'm ever back in the area.More</t>
   </si>
   <si>
-    <t>Lezlee H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r204145443-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -958,7 +1335,52 @@
     <t>I thought it was a great place to crash and stay for one night on a recent business trip. The neighborhood is commercial and I felt safe arriving for a late check-in. Staff very helpful, too. Loved the grab and go breakfast, too.More</t>
   </si>
   <si>
-    <t>Devron A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r197051591-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>197051591</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>I love the location and  nice &amp; quiet enviroment, good for rest as soon I come back from the office.But, I prefer go to another place if I have to bring my fiancé, but just for me, it was good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>I love the location and  nice &amp; quiet enviroment, good for rest as soon I come back from the office.But, I prefer go to another place if I have to bring my fiancé, but just for me, it was good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r196852246-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>196852246</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Good Option for longer stay</t>
+  </si>
+  <si>
+    <t>Lived here for about 2 weeks. while me and my husband were giving exams. I must say this is an awesome place for extended stays. Th front office staff is friendly and the amenities inside the room are good - including a kitchenette. The area has little disturbance from the freeway. There is star bucks, subway and other eateries really close by.  Only concern I had is the locality. It is primary a business/warehouse area and get really quiteMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Lived here for about 2 weeks. while me and my husband were giving exams. I must say this is an awesome place for extended stays. Th front office staff is friendly and the amenities inside the room are good - including a kitchenette. The area has little disturbance from the freeway. There is star bucks, subway and other eateries really close by.  Only concern I had is the locality. It is primary a business/warehouse area and get really quiteMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r194596741-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -976,9 +1398,6 @@
     <t>The location is not ideal because it is located right next to the freeway, but at least the room that I stayed in was clean. They have a security guard that patrols the grounds in the evening when the front office staff takes off, which is nice.MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded February 20, 2014</t>
   </si>
   <si>
@@ -988,9 +1407,6 @@
     <t>The location is not ideal because it is located right next to the freeway, but at least the room that I stayed in was clean. They have a security guard that patrols the grounds in the evening when the front office staff takes off, which is nice.More</t>
   </si>
   <si>
-    <t>Yvettesvue3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r193268252-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1015,9 +1431,6 @@
     <t>I thoroughly enjoyed my stay it was just what I needed to get away from home. I felt like I had a mini vacation. It had been a long and stressful week, I was looking forward to getting away for the Super Bowl along with the chance to see friends. Once the party was over I wanted a place to go where no one could reach me for couple days. While driving on the 91 fwy I saw hotels and decided this was the perfect location for me. I'm happy with the choice I made.More</t>
   </si>
   <si>
-    <t>Dale K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r191809243-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1045,7 +1458,46 @@
     <t>I've stayed here before and have always had a pleasant stay so I booked here again.  Two gentlemen walked in right in front of me and there was already another gentleman being checked in.  One lady was helping the one gentleman and another young lady starting helping the two guys.  She realized they were trying to communicate with her in broken English so she started speaking Spanish.  This was a hit with them and they went back and forth speaking, laughing, giggling.  I was getting frustrated as obviously part of the conversation was social and I was just standing there waiting to be checked in.  That didn't seem to bother the clerk as she just went on and on.  Finally the other clerk got me checked in.  She checked both the other gentleman and myself in less time than the other clerk did.  She had to have spent at least 10 minutes with them and as I said it didn't bother her at all that another customer was waiting while she was just bs'ing with these two guys.  I'll have to think twice before I come back here.More</t>
   </si>
   <si>
-    <t>Paul M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r189765459-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>189765459</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Excellent service, clean, reasonable rates, comfortable rooms!</t>
+  </si>
+  <si>
+    <t>Great Price for the room.  Kitchen complete. CLEAN! Staff totally professional and accommodating. Walking distance to everything you need. Starbucks next door, am/pm 1/2 block away.  Everything I asked for was given to me above &amp; beyond. I left feeling very pleased!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r189539999-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>189539999</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>This hotel is a cheap and self sustained hotel with a full kitchen. But the staff want money for each and everything. Maintenance, room refresh, room cleaning, early check-in and for everything. The location is Ok. The room is good and has the provisions of everything for a medium home. A very good bed with ambient lighting and good TV, WiFi, bathroom and kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is a cheap and self sustained hotel with a full kitchen. But the staff want money for each and everything. Maintenance, room refresh, room cleaning, early check-in and for everything. The location is Ok. The room is good and has the provisions of everything for a medium home. A very good bed with ambient lighting and good TV, WiFi, bathroom and kitchen.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r182501650-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -1066,9 +1518,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>bmoam357</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r182340981-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1078,9 +1527,6 @@
     <t>10/25/2013</t>
   </si>
   <si>
-    <t>Scary</t>
-  </si>
-  <si>
     <t>It was 10:30 at night and I had my child with me, the first room we went to smelled like smoke so I requested a different room. The next room we went to it had roaches crawling around like they own the joint! I could not believe this, I went through HotelsOne.com and explain to them the experience with the hotel and they did not want to refund the money back. The hotel canceled the reservation, but HotelsOne.com would not. It is bad enough to pay 126.09 for a night but not give a refund because of the condition's there they should have giving at lease half of my money back. I will let everyone know that HotelsOne.com is not the place to recommend for finding a hotel with. Well we did not stay there, I just could see staying somewhere with my child, to stay with roaches! I would not recommend this place to my enemies. So you tell me how would you rate something like this?MoreShow less</t>
   </si>
   <si>
@@ -1093,9 +1539,6 @@
     <t>It was 10:30 at night and I had my child with me, the first room we went to smelled like smoke so I requested a different room. The next room we went to it had roaches crawling around like they own the joint! I could not believe this, I went through HotelsOne.com and explain to them the experience with the hotel and they did not want to refund the money back. The hotel canceled the reservation, but HotelsOne.com would not. It is bad enough to pay 126.09 for a night but not give a refund because of the condition's there they should have giving at lease half of my money back. I will let everyone know that HotelsOne.com is not the place to recommend for finding a hotel with. Well we did not stay there, I just could see staying somewhere with my child, to stay with roaches! I would not recommend this place to my enemies. So you tell me how would you rate something like this?More</t>
   </si>
   <si>
-    <t>Roberto M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r181761249-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1111,7 +1554,40 @@
     <t>Very nice hotel , a good customer service, good location if you would like to be close the LAX.The reception service was really kind and helpful, very comfortable room. The breakfast was not he best but It was good, I got a good deal a good price.</t>
   </si>
   <si>
-    <t>Jahmok</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r171243032-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>171243032</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Room 227 needs a new mattress!</t>
+  </si>
+  <si>
+    <t>This is one of a number of rebranded extended stay hotels. Therefore you don't get daily maid service nor the regular minis. All rooms have been remodeled in the past year. Thus it was very clean. But they didn't get new mattresses, at least not this room, and it could use another trash can rather than having to move one from room to room. Still, a relatively good deal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r169221646-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>169221646</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Get there before 11p.m!</t>
+  </si>
+  <si>
+    <t>Do you like the smell of ash trays and weed in a non smoking room? Do you like from desk personnel who don't speak english? How about thin walls and bugs in the bed along with ants who are crawling everywhere? Then this is the place for you. We were not aware that someone was not at the desk after 11 p.m. This would be fine if they actually put our room key in the lock box so we could get to our room. After spending close to an hour trying to get ahold of someone we finally did. We drove over 6.5 hours and were greeted by the worse possible customer service. Our bed had one really hard pillow which sat about 10.5 inches tall (basically useless) so my wife and i had to share one pillow. We didn't sleep anyways because the people who were ACTUALLY living out of the hotel were slamming doors and fighting the whole night. This is a terrible hotel definitely NOT worth the money! Stay somewhere nicer and that doesn't have permanent residents.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Do you like the smell of ash trays and weed in a non smoking room? Do you like from desk personnel who don't speak english? How about thin walls and bugs in the bed along with ants who are crawling everywhere? Then this is the place for you. We were not aware that someone was not at the desk after 11 p.m. This would be fine if they actually put our room key in the lock box so we could get to our room. After spending close to an hour trying to get ahold of someone we finally did. We drove over 6.5 hours and were greeted by the worse possible customer service. Our bed had one really hard pillow which sat about 10.5 inches tall (basically useless) so my wife and i had to share one pillow. We didn't sleep anyways because the people who were ACTUALLY living out of the hotel were slamming doors and fighting the whole night. This is a terrible hotel definitely NOT worth the money! Stay somewhere nicer and that doesn't have permanent residents.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r166634525-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -1139,9 +1615,6 @@
   </si>
   <si>
     <t>Easy check in from a very nice associate and quickly into a clean, comfortable room.  Full kitchen was nice and made for easy eats.  Not a great area but not bad.  Easy freeway access.  Plenty of restaurants nearby.  Good location to work downtown, a short 20 minute drive.  The beach is about 20 minutes away.  Convenient to all points in the South Bay.  Ports of Call is fun.More</t>
-  </si>
-  <si>
-    <t>maxus88</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r164521180-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -1195,9 +1668,6 @@
 good thing I stayed for only 1 nite...this supposed hotel is just off the 91 Riverside freeway; not far away from another Extended Stay Hotel along Vermont Ave in Gardenathe Front Office closes at 11 pm &amp; as I discovered to my horror at another Extended Stay hotel in Mishawaka, Indiana, nobody is around to answer the phone after 11 pm ( to give directions)The room at ESA/Carson is DEFINITELY bigger than the ESA in GardenaI get the feeling that ESA has a sweetheart deal with the local municipality; where the municipality can make use of the rooms to house some on WELFARE HOUSINGthat is why there is a kitchenette &amp; in house laundryI met a German couple who stayed at ESA in Phoenix, AZ &amp; they said the same thingfree cakes &amp; cereals in morningI would stay @ ESA chain of supposed hotels only as a last resort; given the clientele that I am 'rubbing shoulders' withESA is welfare housing masquerading as a 7am - 11 pm 'hotel'I would not pay more than $40 per nite for it; as it is those stayers are already doing the local municipalities such as Gardena &amp; Carson, CA... Mishawaka, Indiana a great favourdon't be fooled by ESA's 'stringent' credit criteria such as not accepting reservations &amp;/or admitting hotel stayers without a Credit Card for your info, ESA DOESN'T ACCEPT cash paymentgood thing I stayed for only 1 niteThere is an Arco gas station along Albertoni Street, Jack in the Box, Panda Express etc2 in strip mall adjacent to ESA/Carsonthe worst value for money is ESA in Gardena, CA along Vermont Ave. the rooms @ ESA/Gardena is about HALF the size of the ESA I stayed in this Carson, CA location &amp; in Mishawaka, INMore</t>
   </si>
   <si>
-    <t>Pauline M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r159447249-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1216,7 +1686,52 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>JOSE M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r157687375-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>157687375</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Very bad orders, smells like a cheap motel..</t>
+  </si>
+  <si>
+    <t>Worst experience with hotel. The hotel looks nice online and says that all rooms are remodeled ..the paint and structure looks ok but my cimplaint is the smell...I requested a non smoking room and all rooms there have a strong smell of cigarette.  The lobbies and hallways  have a bad oder. I stayed on the second floor room 214 .MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded April 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2013</t>
+  </si>
+  <si>
+    <t>Worst experience with hotel. The hotel looks nice online and says that all rooms are remodeled ..the paint and structure looks ok but my cimplaint is the smell...I requested a non smoking room and all rooms there have a strong smell of cigarette.  The lobbies and hallways  have a bad oder. I stayed on the second floor room 214 .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r151131713-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>151131713</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>My stay was pleasant and comfortable because of the staff.</t>
+  </si>
+  <si>
+    <t>Myra checked me.  She was very professional and courteous.  She informed me of the breakfast in the morning as well as what time the doors were being locked at night.  I filled out a couple of papers which was minimal.   The room was comfortable and clean. Everything worked.  The tv, lights, refrigerator , microwave, etc... Bed was comfortable.  Bathroom was clean as well.. Overall my stay was very pleasant.  Look forward to staying here again in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Myra checked me.  She was very professional and courteous.  She informed me of the breakfast in the morning as well as what time the doors were being locked at night.  I filled out a couple of papers which was minimal.   The room was comfortable and clean. Everything worked.  The tv, lights, refrigerator , microwave, etc... Bed was comfortable.  Bathroom was clean as well.. Overall my stay was very pleasant.  Look forward to staying here again in the near future.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r149961404-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -1246,9 +1761,6 @@
     <t>My wife and I stayed for about 5 months at Extended Stay at Carson and the staff there specially Daisy and Angelo were extremely helpful, nice and thoughtful. I recommended this hotel to my friends becuase of Daisy and Angelo. They would take care of you. They are also very professional and polite! Hope you get a chance to meet them.More</t>
   </si>
   <si>
-    <t>Dan0922</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r146347775-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1276,9 +1788,6 @@
     <t>The hotel staff were kind, helpful and knowledge.  The room and bathroom were spacious and has a mini kitchen. The interior is good. Our only problem with the room is that when we check the beddings, there's some hairs and it is dirty so we didn't use it. There's a nearby restaurants. But if your looking for a shopping malls and attractions nearby you need to take a bus or a cab if you are commuting. The hotel do have free Wi-Fi, laundry facility and Continental Breakfast. The rate are affordable.More</t>
   </si>
   <si>
-    <t>Patricia W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r146334583-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1297,7 +1806,58 @@
     <t>I was in the area on business and selected this hotel because it was located in an area which met my business needs.  The homes are not fancy, basic, clean, and with a desk staff willing to help.  For someone in the area on business, it has many things necessary to make your stay comfortable, with near but restaurants, super market, banking, and easy freeway access.  Would use the hotel again if ever in the area agin for business.More</t>
   </si>
   <si>
-    <t>Fmartin1977</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r142996656-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>142996656</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>I always enjoy my stay at "Extended Stay" Carson, Ca</t>
+  </si>
+  <si>
+    <t>I have stayed several times at the Extended Stay in Carson for my lengthy business trips. It is as close to the comfort of your own home as it gets. The staff is extremely helpful and very friendly. It is well kept at all times. It is located out of the inner city of L.A. but is very close to all freeways. It also is near many restaurants and shopping areas.  I highly recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded October 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed several times at the Extended Stay in Carson for my lengthy business trips. It is as close to the comfort of your own home as it gets. The staff is extremely helpful and very friendly. It is well kept at all times. It is located out of the inner city of L.A. but is very close to all freeways. It also is near many restaurants and shopping areas.  I highly recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r139915881-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>139915881</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The extended stay is a very cheap place to stay, but it will cost you. Our room was freezing. We asked for an upgrade to two beds and they did not have it, but the lady at the desk admitted she was unsure because they did not have things in the computer. GET TO BREAKFAST AT 6 AM. The first morning we went to get breakfast at 8 (it ends at 9:30) and there was one muffin left, rotten apples, and green oranges. The next morning we went at 7 and again the fruit was bad. This hotel is out of the way if you want to site see in LA &amp; Hollywood. The bus took 2 hours to get to the red line metro. (The bus was filthy and smelled) To get to hotel from LAX on the metro and the bus (two hours +)  I would not stay in Carson again. It is not worth the commute.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded September 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2012</t>
+  </si>
+  <si>
+    <t>The extended stay is a very cheap place to stay, but it will cost you. Our room was freezing. We asked for an upgrade to two beds and they did not have it, but the lady at the desk admitted she was unsure because they did not have things in the computer. GET TO BREAKFAST AT 6 AM. The first morning we went to get breakfast at 8 (it ends at 9:30) and there was one muffin left, rotten apples, and green oranges. The next morning we went at 7 and again the fruit was bad. This hotel is out of the way if you want to site see in LA &amp; Hollywood. The bus took 2 hours to get to the red line metro. (The bus was filthy and smelled) To get to hotel from LAX on the metro and the bus (two hours +)  I would not stay in Carson again. It is not worth the commute.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r137476081-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
@@ -1324,9 +1884,6 @@
     <t>What more can you ask for!  It is super convenient to the 91 Freeway, it is surrounded by fast food restaurants which are within walking distance of the hotel and it is my husband and I's home away from home whenever we are in Los Angeles to visit family. Friendly staff and very affordable rates. The rooms are spacious and clean and the area is quiet. I have no complaints about this hotel.There is also a fabulous restaurant called 'M and M's right next to the hotel, should you want to get away from the fast food joints.More</t>
   </si>
   <si>
-    <t>Allie_A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r134945776-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1348,9 +1905,6 @@
     <t>Stayed here for two nights in July, 2012.  The initial impression wasn't too good, the first room they gave me was supposed to be non-smoking but had a strong smell of smoke in it.  There was also a maintenance person in the room fixing the sink when I got to the room after getting my key, so I asked for a different room.The next room I was given was fine.  It didn't have a "do not disturb" sign for the door so I had to get one from the desk, and nothing in the room showed the checkout time, I had to get that from the internet (it's 11am), but the room was clean, the AC worked fine, and the staff was friendly.It was also nice there were a few things within walking distance.  So not the best start to the visit, but would probably stay here again.More</t>
   </si>
   <si>
-    <t>emmyfelix</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r130188241-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1376,6 +1930,51 @@
   </si>
   <si>
     <t>Ive stayed at the Extended Stay America in Carson multiple times and everytime they are completely friendly, helpful and accomadating. I recommend this hotel to anyone looking for a nice, quiet, comfortable, affordable room in LA! Located right by the 405/110 fwys.. It's very convienent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r130186803-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>130186803</t>
+  </si>
+  <si>
+    <t>Having a Good Time!!!</t>
+  </si>
+  <si>
+    <t>I have been a long term resident @ Carson and work near LAX and commute via Metro-rail,the location works great for me.Being located by good eateries and shopping makes my logistics in the area worthwhile. The staff does a really great job in accommodating my request. I highly recommend the Carson Extended Stay Hotel for short and long term visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Carson, responded to this reviewResponded July 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2012</t>
+  </si>
+  <si>
+    <t>I have been a long term resident @ Carson and work near LAX and commute via Metro-rail,the location works great for me.Being located by good eateries and shopping makes my logistics in the area worthwhile. The staff does a really great job in accommodating my request. I highly recommend the Carson Extended Stay Hotel for short and long term visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d490925-r129256944-Extended_Stay_America_Los_Angeles_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>129256944</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Overall good experience</t>
+  </si>
+  <si>
+    <t>Overall it was a good experience. Though there are few things they should take care like the lighting in the rooms and the iron which was broken,MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Overall it was a good experience. Though there are few things they should take care like the lighting in the rooms and the iron which was broken,More</t>
   </si>
 </sst>
 </file>
@@ -1878,649 +2477,571 @@
       <c r="A2" t="n">
         <v>52244</v>
       </c>
-      <c r="B2" t="n">
-        <v>177594</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52244</v>
       </c>
-      <c r="B3" t="n">
-        <v>177595</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52244</v>
       </c>
-      <c r="B4" t="n">
-        <v>177596</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52244</v>
       </c>
-      <c r="B5" t="n">
-        <v>177597</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>85</v>
-      </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52244</v>
       </c>
-      <c r="B6" t="n">
-        <v>177598</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>95</v>
-      </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52244</v>
       </c>
-      <c r="B7" t="n">
-        <v>177599</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52244</v>
       </c>
-      <c r="B8" t="n">
-        <v>177600</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52244</v>
       </c>
-      <c r="B9" t="n">
-        <v>177601</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52244</v>
       </c>
-      <c r="B10" t="n">
-        <v>177602</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
@@ -2530,479 +3051,497 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52244</v>
       </c>
-      <c r="B11" t="n">
-        <v>177603</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52244</v>
       </c>
-      <c r="B12" t="n">
-        <v>177604</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52244</v>
       </c>
-      <c r="B13" t="n">
-        <v>177605</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52244</v>
       </c>
-      <c r="B14" t="n">
-        <v>41288</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52244</v>
       </c>
-      <c r="B15" t="n">
-        <v>177606</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>179</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" t="n">
         <v>3</v>
       </c>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
       <c r="Y15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52244</v>
       </c>
-      <c r="B16" t="n">
-        <v>47560</v>
-      </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
       <c r="Y16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52244</v>
       </c>
-      <c r="B17" t="n">
-        <v>177607</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -3011,205 +3550,211 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52244</v>
       </c>
-      <c r="B18" t="n">
-        <v>177608</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52244</v>
       </c>
-      <c r="B19" t="n">
-        <v>177609</v>
-      </c>
-      <c r="C19" t="s">
-        <v>207</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52244</v>
       </c>
-      <c r="B20" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
       <c r="Q20" t="n">
         <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -3218,138 +3763,126 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52244</v>
       </c>
-      <c r="B21" t="n">
-        <v>177610</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="X21" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52244</v>
       </c>
-      <c r="B22" t="n">
-        <v>177611</v>
-      </c>
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" t="s">
+        <v>127</v>
+      </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3358,136 +3891,124 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52244</v>
       </c>
-      <c r="B23" t="n">
-        <v>177612</v>
-      </c>
-      <c r="C23" t="s">
-        <v>246</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="X23" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52244</v>
       </c>
-      <c r="B24" t="n">
-        <v>22530</v>
-      </c>
-      <c r="C24" t="s">
-        <v>257</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
@@ -3498,147 +4019,125 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="X24" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52244</v>
       </c>
-      <c r="B25" t="n">
-        <v>68882</v>
-      </c>
-      <c r="C25" t="s">
-        <v>266</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>273</v>
-      </c>
-      <c r="X25" t="s">
-        <v>274</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52244</v>
       </c>
-      <c r="B26" t="n">
-        <v>177613</v>
-      </c>
-      <c r="C26" t="s">
-        <v>276</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3646,67 +4145,57 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52244</v>
       </c>
-      <c r="B27" t="n">
-        <v>177614</v>
-      </c>
-      <c r="C27" t="s">
-        <v>284</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3714,798 +4203,706 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>291</v>
-      </c>
-      <c r="X27" t="s">
-        <v>292</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52244</v>
       </c>
-      <c r="B28" t="n">
-        <v>177615</v>
-      </c>
-      <c r="C28" t="s">
-        <v>294</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="X28" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y28" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52244</v>
       </c>
-      <c r="B29" t="n">
-        <v>177616</v>
-      </c>
-      <c r="C29" t="s">
-        <v>304</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>311</v>
-      </c>
-      <c r="X29" t="s">
-        <v>312</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52244</v>
       </c>
-      <c r="B30" t="n">
-        <v>177617</v>
-      </c>
-      <c r="C30" t="s">
-        <v>314</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>90</v>
+      </c>
       <c r="P30" t="n">
         <v>4</v>
       </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52244</v>
       </c>
-      <c r="B31" t="n">
-        <v>100725</v>
-      </c>
-      <c r="C31" t="s">
-        <v>323</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52244</v>
       </c>
-      <c r="B32" t="n">
-        <v>7271</v>
-      </c>
-      <c r="C32" t="s">
-        <v>333</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>302</v>
+      </c>
+      <c r="X32" t="s">
+        <v>303</v>
+      </c>
       <c r="Y32" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52244</v>
       </c>
-      <c r="B33" t="n">
-        <v>177618</v>
-      </c>
-      <c r="C33" t="s">
-        <v>340</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J33" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="X33" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="Y33" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52244</v>
       </c>
-      <c r="B34" t="n">
-        <v>23429</v>
-      </c>
-      <c r="C34" t="s">
-        <v>349</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>319</v>
+      </c>
+      <c r="X34" t="s">
+        <v>320</v>
+      </c>
       <c r="Y34" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52244</v>
       </c>
-      <c r="B35" t="n">
-        <v>177619</v>
-      </c>
-      <c r="C35" t="s">
-        <v>355</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="J35" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="X35" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="Y35" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52244</v>
       </c>
-      <c r="B36" t="n">
-        <v>177620</v>
-      </c>
-      <c r="C36" t="s">
-        <v>365</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="X36" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="Y36" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52244</v>
       </c>
-      <c r="B37" t="n">
-        <v>177621</v>
-      </c>
-      <c r="C37" t="s">
-        <v>375</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>381</v>
-      </c>
-      <c r="O37" t="s">
-        <v>253</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>345</v>
+      </c>
+      <c r="X37" t="s">
+        <v>346</v>
+      </c>
       <c r="Y37" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52244</v>
       </c>
-      <c r="B38" t="n">
-        <v>177622</v>
-      </c>
-      <c r="C38" t="s">
-        <v>382</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="J38" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>4</v>
@@ -4513,289 +4910,259 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>389</v>
-      </c>
-      <c r="X38" t="s">
-        <v>390</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52244</v>
       </c>
-      <c r="B39" t="n">
-        <v>177623</v>
-      </c>
-      <c r="C39" t="s">
-        <v>392</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>64</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="X39" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52244</v>
       </c>
-      <c r="B40" t="n">
-        <v>5388</v>
-      </c>
-      <c r="C40" t="s">
-        <v>402</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="J40" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="X40" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Y40" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52244</v>
       </c>
-      <c r="B41" t="n">
-        <v>177624</v>
-      </c>
-      <c r="C41" t="s">
-        <v>409</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
         <v>46</v>
       </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
       <c r="I41" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="J41" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="K41" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="O41" t="s">
-        <v>64</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="X41" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="Y41" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52244</v>
       </c>
-      <c r="B42" t="n">
-        <v>177625</v>
-      </c>
-      <c r="C42" t="s">
-        <v>418</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
         <v>46</v>
       </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
       <c r="I42" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="J42" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="K42" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="O42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>3</v>
@@ -4804,67 +5171,59 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="X42" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="Y42" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52244</v>
       </c>
-      <c r="B43" t="n">
-        <v>177626</v>
-      </c>
-      <c r="C43" t="s">
-        <v>426</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
         <v>46</v>
       </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
       <c r="I43" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="J43" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="K43" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="L43" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
@@ -4879,13 +5238,2142 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
+        <v>396</v>
+      </c>
+      <c r="X43" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>399</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" t="s">
+        <v>401</v>
+      </c>
+      <c r="K44" t="s">
+        <v>402</v>
+      </c>
+      <c r="L44" t="s">
+        <v>403</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>409</v>
+      </c>
+      <c r="O45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>416</v>
+      </c>
+      <c r="O46" t="s">
+        <v>127</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>417</v>
+      </c>
+      <c r="X46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>421</v>
+      </c>
+      <c r="J47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" t="s">
+        <v>424</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>425</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>426</v>
+      </c>
+      <c r="X47" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" t="s">
+        <v>431</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" t="s">
         <v>433</v>
       </c>
-      <c r="X43" t="s">
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
         <v>434</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
         <v>435</v>
+      </c>
+      <c r="X48" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>439</v>
+      </c>
+      <c r="J49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>443</v>
+      </c>
+      <c r="O49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>435</v>
+      </c>
+      <c r="X49" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>445</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>446</v>
+      </c>
+      <c r="J50" t="s">
+        <v>447</v>
+      </c>
+      <c r="K50" t="s">
+        <v>448</v>
+      </c>
+      <c r="L50" t="s">
+        <v>449</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>443</v>
+      </c>
+      <c r="O50" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>450</v>
+      </c>
+      <c r="X50" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>453</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>454</v>
+      </c>
+      <c r="J51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K51" t="s">
+        <v>456</v>
+      </c>
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>458</v>
+      </c>
+      <c r="X51" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>461</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>462</v>
+      </c>
+      <c r="J52" t="s">
+        <v>463</v>
+      </c>
+      <c r="K52" t="s">
+        <v>464</v>
+      </c>
+      <c r="L52" t="s">
+        <v>465</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>466</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>467</v>
+      </c>
+      <c r="X52" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>470</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>471</v>
+      </c>
+      <c r="J53" t="s">
+        <v>472</v>
+      </c>
+      <c r="K53" t="s">
+        <v>473</v>
+      </c>
+      <c r="L53" t="s">
+        <v>474</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>466</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>476</v>
+      </c>
+      <c r="J54" t="s">
+        <v>477</v>
+      </c>
+      <c r="K54" t="s">
+        <v>478</v>
+      </c>
+      <c r="L54" t="s">
+        <v>479</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>480</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>481</v>
+      </c>
+      <c r="X54" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>485</v>
+      </c>
+      <c r="J55" t="s">
+        <v>486</v>
+      </c>
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s">
+        <v>488</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>489</v>
+      </c>
+      <c r="O55" t="s">
+        <v>127</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>490</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" t="s">
+        <v>492</v>
+      </c>
+      <c r="K56" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" t="s">
+        <v>493</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>489</v>
+      </c>
+      <c r="O56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>494</v>
+      </c>
+      <c r="X56" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>497</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>498</v>
+      </c>
+      <c r="J57" t="s">
+        <v>499</v>
+      </c>
+      <c r="K57" t="s">
+        <v>500</v>
+      </c>
+      <c r="L57" t="s">
+        <v>501</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>489</v>
+      </c>
+      <c r="O57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>503</v>
+      </c>
+      <c r="J58" t="s">
+        <v>504</v>
+      </c>
+      <c r="K58" t="s">
+        <v>505</v>
+      </c>
+      <c r="L58" t="s">
+        <v>506</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>507</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>508</v>
+      </c>
+      <c r="J59" t="s">
+        <v>509</v>
+      </c>
+      <c r="K59" t="s">
+        <v>510</v>
+      </c>
+      <c r="L59" t="s">
+        <v>511</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>512</v>
+      </c>
+      <c r="O59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>514</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>515</v>
+      </c>
+      <c r="J60" t="s">
+        <v>516</v>
+      </c>
+      <c r="K60" t="s">
+        <v>517</v>
+      </c>
+      <c r="L60" t="s">
+        <v>518</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>519</v>
+      </c>
+      <c r="O60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>520</v>
+      </c>
+      <c r="X60" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>523</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>524</v>
+      </c>
+      <c r="J61" t="s">
+        <v>525</v>
+      </c>
+      <c r="K61" t="s">
+        <v>526</v>
+      </c>
+      <c r="L61" t="s">
+        <v>527</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>528</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>529</v>
+      </c>
+      <c r="X61" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>532</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>533</v>
+      </c>
+      <c r="J62" t="s">
+        <v>534</v>
+      </c>
+      <c r="K62" t="s">
+        <v>535</v>
+      </c>
+      <c r="L62" t="s">
+        <v>536</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>537</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>538</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>539</v>
+      </c>
+      <c r="J63" t="s">
+        <v>540</v>
+      </c>
+      <c r="K63" t="s">
+        <v>541</v>
+      </c>
+      <c r="L63" t="s">
+        <v>542</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>546</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>547</v>
+      </c>
+      <c r="J64" t="s">
+        <v>548</v>
+      </c>
+      <c r="K64" t="s">
+        <v>549</v>
+      </c>
+      <c r="L64" t="s">
+        <v>550</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>551</v>
+      </c>
+      <c r="X64" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>554</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>555</v>
+      </c>
+      <c r="J65" t="s">
+        <v>556</v>
+      </c>
+      <c r="K65" t="s">
+        <v>557</v>
+      </c>
+      <c r="L65" t="s">
+        <v>558</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>559</v>
+      </c>
+      <c r="O65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>560</v>
+      </c>
+      <c r="X65" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>563</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>564</v>
+      </c>
+      <c r="J66" t="s">
+        <v>565</v>
+      </c>
+      <c r="K66" t="s">
+        <v>566</v>
+      </c>
+      <c r="L66" t="s">
+        <v>567</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>568</v>
+      </c>
+      <c r="O66" t="s">
+        <v>90</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>569</v>
+      </c>
+      <c r="X66" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>572</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>573</v>
+      </c>
+      <c r="J67" t="s">
+        <v>565</v>
+      </c>
+      <c r="K67" t="s">
+        <v>574</v>
+      </c>
+      <c r="L67" t="s">
+        <v>575</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>576</v>
+      </c>
+      <c r="O67" t="s">
+        <v>80</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>569</v>
+      </c>
+      <c r="X67" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>578</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>579</v>
+      </c>
+      <c r="J68" t="s">
+        <v>580</v>
+      </c>
+      <c r="K68" t="s">
+        <v>581</v>
+      </c>
+      <c r="L68" t="s">
+        <v>582</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>583</v>
+      </c>
+      <c r="O68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>584</v>
+      </c>
+      <c r="X68" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>587</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>588</v>
+      </c>
+      <c r="J69" t="s">
+        <v>589</v>
+      </c>
+      <c r="K69" t="s">
+        <v>590</v>
+      </c>
+      <c r="L69" t="s">
+        <v>591</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>592</v>
+      </c>
+      <c r="O69" t="s">
+        <v>90</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>593</v>
+      </c>
+      <c r="X69" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>596</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>597</v>
+      </c>
+      <c r="J70" t="s">
+        <v>598</v>
+      </c>
+      <c r="K70" t="s">
+        <v>599</v>
+      </c>
+      <c r="L70" t="s">
+        <v>600</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>559</v>
+      </c>
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>601</v>
+      </c>
+      <c r="X70" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>604</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>605</v>
+      </c>
+      <c r="J71" t="s">
+        <v>606</v>
+      </c>
+      <c r="K71" t="s">
+        <v>607</v>
+      </c>
+      <c r="L71" t="s">
+        <v>608</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>609</v>
+      </c>
+      <c r="O71" t="s">
+        <v>127</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>601</v>
+      </c>
+      <c r="X71" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>611</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>612</v>
+      </c>
+      <c r="J72" t="s">
+        <v>613</v>
+      </c>
+      <c r="K72" t="s">
+        <v>614</v>
+      </c>
+      <c r="L72" t="s">
+        <v>615</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>616</v>
+      </c>
+      <c r="O72" t="s">
+        <v>127</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>617</v>
+      </c>
+      <c r="X72" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>620</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>621</v>
+      </c>
+      <c r="J73" t="s">
+        <v>613</v>
+      </c>
+      <c r="K73" t="s">
+        <v>622</v>
+      </c>
+      <c r="L73" t="s">
+        <v>623</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>624</v>
+      </c>
+      <c r="O73" t="s">
+        <v>127</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>625</v>
+      </c>
+      <c r="X73" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52244</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>628</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>629</v>
+      </c>
+      <c r="J74" t="s">
+        <v>630</v>
+      </c>
+      <c r="K74" t="s">
+        <v>631</v>
+      </c>
+      <c r="L74" t="s">
+        <v>632</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>633</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>625</v>
+      </c>
+      <c r="X74" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
